--- a/hw/power_dist/LM5066I_Design_Calculator_REV_C.XLSX
+++ b/hw/power_dist/LM5066I_Design_Calculator_REV_C.XLSX
@@ -6017,7 +6017,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7113,11 +7113,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79816487"/>
-        <c:axId val="11318469"/>
+        <c:axId val="43852805"/>
+        <c:axId val="60679484"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79816487"/>
+        <c:axId val="43852805"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7217,12 +7217,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11318469"/>
+        <c:crossAx val="60679484"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11318469"/>
+        <c:axId val="60679484"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7322,7 +7322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79816487"/>
+        <c:crossAx val="43852805"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7393,7 +7393,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8488,324 +8488,324 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="43816744"/>
-        <c:axId val="76449590"/>
+        <c:axId val="32942623"/>
+        <c:axId val="54143539"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43816744"/>
+        <c:axId val="32942623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8899,12 +8899,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76449590"/>
+        <c:crossAx val="54143539"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76449590"/>
+        <c:axId val="54143539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8999,7 +8999,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43816744"/>
+        <c:crossAx val="32942623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9062,7 +9062,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9181,319 +9181,319 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.240384615384615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.625</c:v>
+                  <c:v>0.480769230769231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9375</c:v>
+                  <c:v>0.721153846153846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.25</c:v>
+                  <c:v>0.961538461538462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5625</c:v>
+                  <c:v>1.20192307692308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.875</c:v>
+                  <c:v>1.44230769230769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1875</c:v>
+                  <c:v>1.68269230769231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5</c:v>
+                  <c:v>1.92307692307692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8125</c:v>
+                  <c:v>2.16346153846154</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2.40384615384615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.64423076923077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.88461538461538</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3.125</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.4375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0625</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.375</c:v>
+                  <c:v>3.36538461538462</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6875</c:v>
+                  <c:v>3.60576923076923</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>3.84615384615385</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3125</c:v>
+                  <c:v>4.08653846153846</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.625</c:v>
+                  <c:v>4.32692307692308</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.9375</c:v>
+                  <c:v>4.56730769230769</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>4.80769230769231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.04807692307693</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.28846153846154</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.52884615384616</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.00961538461539</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>6.25</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.5625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.1875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.8125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.125</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.4375</c:v>
+                  <c:v>6.49038461538462</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.75</c:v>
+                  <c:v>6.73076923076924</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.0625</c:v>
+                  <c:v>6.97115384615385</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>7.21153846153847</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.45192307692308</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.6923076923077</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.93269230769231</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.17307692307693</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.41346153846154</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.65384615384616</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.89423076923077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.13461538461539</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>9.375</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.6875</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10.3125</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10.625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10.9375</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.25</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.5625</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.875</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12.1875</c:v>
-                </c:pt>
                 <c:pt idx="42">
+                  <c:v>9.61538461538462</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.85576923076923</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.0961538461538</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.3365384615385</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.5769230769231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.8173076923077</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.0576923076923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.2980769230769</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.5384615384615</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.7788461538462</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.0192307692308</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.2596153846154</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.8125</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>13.125</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>13.4375</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13.75</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14.0625</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>14.375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>14.6875</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>15.3125</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="55">
+                  <c:v>12.7403846153846</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.9807692307692</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.2211538461538</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.4615384615385</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.7019230769231</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.9423076923077</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.1826923076923</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.4230769230769</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.6634615384615</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.1442307692308</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.3846153846154</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>15.625</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>15.9375</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>16.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>16.5625</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16.875</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17.1875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.8125</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>18.125</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>18.4375</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
+                  <c:v>15.8653846153846</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.1057692307692</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.3461538461538</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.5865384615385</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.8269230769231</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.0673076923077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.3076923076923</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.5480769230769</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.7884615384615</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.0288461538462</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18.2692307692308</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.5096153846154</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>18.75</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>19.0625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>19.375</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>19.6875</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>20.3125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>20.625</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>20.9375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>21.5625</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="81">
+                  <c:v>18.9903846153846</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19.2307692307692</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19.4711538461539</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19.7115384615385</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>19.9519230769231</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.1923076923077</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.4326923076923</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.6730769230769</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.9134615384616</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>21.1538461538462</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21.3942307692308</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>21.6346153846154</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>21.875</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>22.1875</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.8125</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>23.125</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>23.4375</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>23.75</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>24.0625</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>24.375</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>24.6875</c:v>
-                </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="94">
+                  <c:v>22.1153846153846</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>22.3557692307693</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22.5961538461539</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22.8365384615385</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>23.0769230769231</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>23.3173076923077</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>23.5576923076923</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>23.798076923077</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>24.0384615384616</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24.2788461538462</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24.5192307692308</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>24.7596153846154</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>25.3125</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>25.625</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>25.9375</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>26.25</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26.5625</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>26.875</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>27.1875</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>27.8125</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>28.125</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>28.4375</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>28.75</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>29.0625</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>29.375</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>29.6875</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>30.3125</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>30.625</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>30.9375</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>31.5625</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>32.1875</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>32.5</c:v>
-                </c:pt>
                 <c:pt idx="107">
-                  <c:v>33</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9511,316 +9511,316 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>396.153846153846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>392.307692307692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388.461538461538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>380.769230769231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>376.923076923077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>373.076923076923</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>369.230769230769</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365.384615384615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>361.538461538462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>357.692307692308</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>353.846153846154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>346.153846153846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>342.307692307692</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>338.461538461538</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>334.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>330.769230769231</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>326.923076923077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>323.076923076923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>319.230769230769</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>315.384615384615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>311.538461538462</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>307.692307692308</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>304.733727810651</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>301.775147928994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>298.816568047337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>295.857988165681</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>292.899408284024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>289.940828402367</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>286.98224852071</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>284.023668639053</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>281.065088757396</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>278.10650887574</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>275.147928994083</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>272.189349112426</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
+                  <c:v>303.846153846154</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>296.153846153846</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>292.307692307692</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>288.461538461538</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>284.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>280.769230769231</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>276.923076923077</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>273.076923076923</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>269.230769230769</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>266.272189349112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>263.313609467456</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>260.355029585799</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>257.396449704142</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>254.437869822485</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>251.479289940828</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>248.520710059172</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>245.562130177515</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>242.603550295858</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>239.644970414201</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>236.686390532544</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>233.727810650888</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
+                  <c:v>265.384615384615</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>261.538461538462</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>257.692307692308</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>253.846153846154</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>246.153846153846</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>242.307692307692</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>238.461538461538</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>234.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>230.769230769231</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>227.810650887574</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>224.852071005917</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>221.89349112426</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>218.934911242604</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>215.976331360947</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>213.01775147929</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>210.059171597633</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>207.100591715976</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>204.14201183432</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>201.183431952663</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>198.224852071006</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>195.266272189349</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
+                  <c:v>226.923076923077</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>223.076923076923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>219.230769230769</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>215.384615384615</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>211.538461538462</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>207.692307692308</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>203.846153846154</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>196.153846153846</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>192.307692307692</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>189.349112426036</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>186.390532544379</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>183.431952662722</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>180.473372781065</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>177.514792899408</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>174.556213017751</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>171.597633136095</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>168.639053254438</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>165.680473372781</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>162.721893491124</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>159.763313609467</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>156.804733727811</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="57">
+                  <c:v>188.461538461538</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>184.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>180.769230769231</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>176.923076923077</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>173.076923076923</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>169.230769230769</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>165.384615384615</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>161.538461538462</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>157.692307692308</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>153.846153846154</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>150.887573964497</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>147.92899408284</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>144.970414201183</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>142.011834319527</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>139.05325443787</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>136.094674556213</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>133.136094674556</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>130.177514792899</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>127.218934911243</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>124.260355029586</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>121.301775147929</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>118.343195266272</c:v>
-                </c:pt>
                 <c:pt idx="67">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>146.153846153846</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>142.307692307692</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>138.461538461538</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>134.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>130.769230769231</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>126.923076923077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>123.076923076923</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>119.230769230769</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>115.384615384615</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>112.426035502959</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>109.467455621302</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>106.508875739645</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>103.550295857988</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>100.591715976331</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>97.6331360946746</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>94.6745562130178</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>91.715976331361</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>88.7573964497041</c:v>
-                </c:pt>
                 <c:pt idx="77">
-                  <c:v>85.7988165680473</c:v>
+                  <c:v>111.538461538462</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>82.8402366863906</c:v>
+                  <c:v>107.692307692308</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79.8816568047337</c:v>
+                  <c:v>103.846153846154</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>96.1538461538462</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92.3076923076923</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88.4615384615385</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.6153846153846</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>80.7692307692308</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>76.9230769230769</c:v>
                 </c:pt>
-                <c:pt idx="81">
-                  <c:v>73.9644970414201</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>71.0059171597633</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>68.0473372781065</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>65.0887573964497</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>62.1301775147929</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>59.1715976331361</c:v>
-                </c:pt>
                 <c:pt idx="87">
-                  <c:v>56.2130177514793</c:v>
+                  <c:v>73.0769230769231</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>53.2544378698225</c:v>
+                  <c:v>69.2307692307692</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>50.2958579881657</c:v>
+                  <c:v>65.3846153846154</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>47.3372781065089</c:v>
+                  <c:v>61.5384615384616</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>44.3786982248521</c:v>
+                  <c:v>57.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>41.4201183431952</c:v>
+                  <c:v>53.8461538461538</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>46.1538461538462</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42.3076923076923</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>38.4615384615385</c:v>
                 </c:pt>
-                <c:pt idx="94">
-                  <c:v>35.5029585798817</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>32.5443786982248</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>29.585798816568</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>26.6272189349113</c:v>
+                  <c:v>34.6153846153846</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>23.6686390532544</c:v>
+                  <c:v>30.7692307692308</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>20.7100591715976</c:v>
+                  <c:v>26.9230769230769</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>17.7514792899408</c:v>
+                  <c:v>23.0769230769231</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14.792899408284</c:v>
+                  <c:v>19.2307692307692</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.8343195266272</c:v>
+                  <c:v>15.3846153846154</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.87573964497042</c:v>
+                  <c:v>11.5384615384615</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.91715976331364</c:v>
+                  <c:v>7.69230769230774</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.95857988165678</c:v>
+                  <c:v>3.84615384615381</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>0</c:v>
@@ -9833,11 +9833,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36556"/>
-        <c:axId val="20794103"/>
+        <c:axId val="15511"/>
+        <c:axId val="54900460"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36556"/>
+        <c:axId val="15511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1"/>
@@ -9922,12 +9922,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20794103"/>
+        <c:crossAx val="54900460"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20794103"/>
+        <c:axId val="54900460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10022,7 +10022,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36556"/>
+        <c:crossAx val="15511"/>
         <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10085,7 +10085,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11170,324 +11170,324 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.15384615384615</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73383378"/>
-        <c:axId val="65085165"/>
+        <c:axId val="88318627"/>
+        <c:axId val="40458723"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73383378"/>
+        <c:axId val="88318627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11553,12 +11553,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65085165"/>
+        <c:crossAx val="40458723"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65085165"/>
+        <c:axId val="40458723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11635,7 +11635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73383378"/>
+        <c:crossAx val="88318627"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16965,8 +16965,8 @@
   </sheetPr>
   <dimension ref="A1:AU227"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C85" activeCellId="0" sqref="C85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F91" activeCellId="0" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="F74" s="143" t="n">
         <f aca="false">Start_up!M2</f>
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="G74" s="89" t="s">
         <v>108</v>
@@ -20528,7 +20528,7 @@
       </c>
       <c r="F76" s="143" t="n">
         <f aca="false">Equations!F46</f>
-        <v>48.75</v>
+        <v>37.5000000000001</v>
       </c>
       <c r="G76" s="92" t="s">
         <v>108</v>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="F77" s="143" t="n">
         <f aca="false">Equations!F47</f>
-        <v>937.5</v>
+        <v>721.153846153847</v>
       </c>
       <c r="G77" s="89" t="s">
         <v>112</v>
@@ -21004,7 +21004,7 @@
         <v>123</v>
       </c>
       <c r="F86" s="88" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G86" s="89" t="s">
         <v>112</v>
@@ -21052,7 +21052,7 @@
       </c>
       <c r="F87" s="143" t="n">
         <f aca="false">Equations!F55</f>
-        <v>1.53846153846154</v>
+        <v>2</v>
       </c>
       <c r="G87" s="89" t="s">
         <v>118</v>
@@ -21100,7 +21100,7 @@
       </c>
       <c r="F88" s="143" t="n">
         <f aca="false">Equations!F62</f>
-        <v>2.02212575360346</v>
+        <v>1.75313444821472</v>
       </c>
       <c r="G88" s="89"/>
       <c r="H88" s="86"/>
@@ -22014,7 +22014,7 @@
         <v>150</v>
       </c>
       <c r="F107" s="157" t="n">
-        <v>95.3</v>
+        <v>100</v>
       </c>
       <c r="G107" s="158" t="s">
         <v>96</v>
@@ -22061,7 +22061,7 @@
         <v>151</v>
       </c>
       <c r="F108" s="157" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="G108" s="158" t="s">
         <v>96</v>
@@ -22305,15 +22305,15 @@
       </c>
       <c r="D113" s="170" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F129,Equations!G129)</f>
-        <v>63.2902673796791</v>
+        <v>61.842736318408</v>
       </c>
       <c r="E113" s="143" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F130,Equations!G130)</f>
-        <v>65.1439572192513</v>
+        <v>63.6540298507463</v>
       </c>
       <c r="F113" s="171" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F131,Equations!G131)</f>
-        <v>66.9976470588235</v>
+        <v>65.4653233830846</v>
       </c>
       <c r="G113" s="158" t="s">
         <v>40</v>
@@ -22359,15 +22359,15 @@
       </c>
       <c r="D114" s="172" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F132,Equations!G132)</f>
-        <v>61.0030673796791</v>
+        <v>59.442736318408</v>
       </c>
       <c r="E114" s="173" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F133,Equations!G133)</f>
-        <v>63.1426572192513</v>
+        <v>61.5540298507463</v>
       </c>
       <c r="F114" s="174" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F134,Equations!G134)</f>
-        <v>65.4728470588235</v>
+        <v>63.8653233830846</v>
       </c>
       <c r="G114" s="158" t="s">
         <v>40</v>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="F134" s="201" t="n">
         <f aca="false">F107</f>
-        <v>95.3</v>
+        <v>100</v>
       </c>
       <c r="G134" s="190" t="s">
         <v>96</v>
@@ -23342,7 +23342,7 @@
       </c>
       <c r="K134" s="204" t="n">
         <f aca="false">IF(F73="YES",Equations!F57,Start_up!M2)</f>
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="L134" s="200" t="s">
         <v>108</v>
@@ -23385,7 +23385,7 @@
       </c>
       <c r="F135" s="205" t="n">
         <f aca="false">IF(F96="Option A","N/A",F108)</f>
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="G135" s="190" t="s">
         <v>96</v>
@@ -23550,7 +23550,7 @@
       </c>
       <c r="F138" s="207" t="n">
         <f aca="false">IF(F73="YES", F86, "DNP")</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G138" s="190" t="s">
         <v>112</v>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="K140" s="206" t="n">
         <f aca="false">E113</f>
-        <v>65.1439572192513</v>
+        <v>63.6540298507463</v>
       </c>
       <c r="L140" s="200" t="s">
         <v>40</v>
@@ -23724,7 +23724,7 @@
       </c>
       <c r="K141" s="206" t="n">
         <f aca="false">E114</f>
-        <v>63.1426572192513</v>
+        <v>61.5540298507463</v>
       </c>
       <c r="L141" s="200" t="s">
         <v>40</v>
@@ -27529,7 +27529,7 @@
       <formula>$F$65</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:AM62 B70:AM155 C63:AM67 C69:H69 C68:I68 N68:AM69">
+  <conditionalFormatting sqref="B27:AM62 B70:AM117 C63:AM67 C69:H69 C68:I68 N68:AM69 B119:AM155 B118:H118 J118:AM118">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>$G$23="No"</formula>
     </cfRule>
@@ -27560,6 +27560,14 @@
       <formula>$G$23="No"</formula>
     </cfRule>
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+      <formula>$G$22="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+      <formula>$G$23="No"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>$G$22="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28872,7 +28880,7 @@
       </c>
       <c r="F44" s="242" t="n">
         <f aca="false">Start_up!M2</f>
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="G44" s="245" t="s">
         <v>108</v>
@@ -28900,7 +28908,7 @@
       </c>
       <c r="F46" s="239" t="n">
         <f aca="false">F44*(1+F45)</f>
-        <v>48.75</v>
+        <v>37.5000000000001</v>
       </c>
       <c r="G46" s="245" t="s">
         <v>108</v>
@@ -28915,7 +28923,7 @@
       </c>
       <c r="F47" s="239" t="n">
         <f aca="false">'Device Parameters'!D25/'Device Parameters'!D22*F46</f>
-        <v>937.5</v>
+        <v>721.153846153847</v>
       </c>
       <c r="G47" s="245" t="s">
         <v>112</v>
@@ -29016,7 +29024,7 @@
       </c>
       <c r="F54" s="247" t="n">
         <f aca="false">'Design Calculator'!F86</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G54" s="245" t="s">
         <v>112</v>
@@ -29032,7 +29040,7 @@
       </c>
       <c r="F55" s="243" t="n">
         <f aca="false">ss_rate*F53/F54</f>
-        <v>1.53846153846154</v>
+        <v>2</v>
       </c>
       <c r="G55" s="245" t="s">
         <v>118</v>
@@ -29048,7 +29056,7 @@
       </c>
       <c r="F56" s="247" t="n">
         <f aca="false">COUTMAX*F55/1000</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G56" s="247" t="s">
         <v>44</v>
@@ -29064,7 +29072,7 @@
       </c>
       <c r="F57" s="247" t="n">
         <f aca="false">VINMAX/F55</f>
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="G57" s="247" t="s">
         <v>108</v>
@@ -29096,7 +29104,7 @@
       </c>
       <c r="F59" s="247" t="n">
         <f aca="false">Start_up!Q4</f>
-        <v>307.692307692308</v>
+        <v>400</v>
       </c>
       <c r="G59" s="247" t="s">
         <v>59</v>
@@ -29111,7 +29119,7 @@
       </c>
       <c r="F60" s="247" t="n">
         <f aca="false">F58/F59*1000</f>
-        <v>16.09375</v>
+        <v>12.3798076923077</v>
       </c>
       <c r="G60" s="247" t="s">
         <v>108</v>
@@ -29126,7 +29134,7 @@
       </c>
       <c r="F61" s="245" t="n">
         <f aca="false">SOA!H28</f>
-        <v>622.192539570295</v>
+        <v>701.253779285889</v>
       </c>
       <c r="G61" s="247" t="s">
         <v>59</v>
@@ -29141,7 +29149,7 @@
       </c>
       <c r="F62" s="245" t="n">
         <f aca="false">F61/F59</f>
-        <v>2.02212575360346</v>
+        <v>1.75313444821472</v>
       </c>
       <c r="G62" s="245"/>
       <c r="H62" s="239"/>
@@ -29826,7 +29834,7 @@
       </c>
       <c r="F123" s="254" t="n">
         <f aca="false">2.41+('Design Calculator'!F105*((2.41/('Design Calculator'!F106+'Design Calculator'!F107))+(16/1000)))</f>
-        <v>8.19483146067416</v>
+        <v>8.05215246636771</v>
       </c>
       <c r="G123" s="254" t="n">
         <f aca="false">2.41+('Design Calculator'!F$105*((2.41/'Design Calculator'!F$106)+(16/1000)))</f>
@@ -29843,7 +29851,7 @@
       </c>
       <c r="F124" s="254" t="n">
         <f aca="false">2.48+('Design Calculator'!F105*((2.48/('Design Calculator'!F106+'Design Calculator'!F107))+(20/1000)))</f>
-        <v>8.96314606741573</v>
+        <v>8.81632286995516</v>
       </c>
       <c r="G124" s="254" t="n">
         <f aca="false">2.48+('Design Calculator'!F$105*((2.48/'Design Calculator'!F$106)+(20/1000)))</f>
@@ -29860,7 +29868,7 @@
       </c>
       <c r="F125" s="254" t="n">
         <f aca="false">2.55+('Design Calculator'!F105*((2.55/('Design Calculator'!F106+'Design Calculator'!F107))+(24/1000)))</f>
-        <v>9.7314606741573</v>
+        <v>9.5804932735426</v>
       </c>
       <c r="G125" s="254" t="n">
         <f aca="false">2.55+('Design Calculator'!F$105*((2.55/'Design Calculator'!F$106)+(24/1000)))</f>
@@ -29875,7 +29883,7 @@
       </c>
       <c r="F126" s="254" t="n">
         <f aca="false">2.41*('Design Calculator'!F105+'Design Calculator'!F106+'Design Calculator'!F107)/('Design Calculator'!F106+'Design Calculator'!F107)</f>
-        <v>5.79483146067416</v>
+        <v>5.65215246636771</v>
       </c>
       <c r="G126" s="254" t="n">
         <f aca="false">2.41*('Design Calculator'!F$105+'Design Calculator'!F$106)/'Design Calculator'!F$106</f>
@@ -29890,7 +29898,7 @@
       </c>
       <c r="F127" s="254" t="n">
         <f aca="false">2.48*('Design Calculator'!F105+'Design Calculator'!F106+'Design Calculator'!F107)/('Design Calculator'!F106+'Design Calculator'!F107)</f>
-        <v>5.96314606741573</v>
+        <v>5.81632286995516</v>
       </c>
       <c r="G127" s="254" t="n">
         <f aca="false">2.48*('Design Calculator'!F$105+'Design Calculator'!F$106)/'Design Calculator'!F$106</f>
@@ -29905,7 +29913,7 @@
       </c>
       <c r="F128" s="254" t="n">
         <f aca="false">2.55*('Design Calculator'!F105+'Design Calculator'!F106+'Design Calculator'!F107)/('Design Calculator'!F106+'Design Calculator'!F107)</f>
-        <v>6.1314606741573</v>
+        <v>5.9804932735426</v>
       </c>
       <c r="G128" s="254" t="n">
         <f aca="false">2.55*('Design Calculator'!F$105+'Design Calculator'!F$106)/'Design Calculator'!F$106</f>
@@ -29922,11 +29930,11 @@
       </c>
       <c r="F129" s="254" t="n">
         <f aca="false">2.39*('Design Calculator'!F105+'Design Calculator'!F106+'Design Calculator'!F107)/'Design Calculator'!F107</f>
-        <v>6.44020986358867</v>
+        <v>6.24985</v>
       </c>
       <c r="G129" s="254" t="n">
         <f aca="false">2.39*('Design Calculator'!F$107+'Design Calculator'!F$108)/'Design Calculator'!F$108</f>
-        <v>63.2902673796791</v>
+        <v>61.842736318408</v>
       </c>
       <c r="H129" s="239"/>
     </row>
@@ -29939,11 +29947,11 @@
       </c>
       <c r="F130" s="254" t="n">
         <f aca="false">2.46*('Design Calculator'!F$105+'Design Calculator'!F$106+'Design Calculator'!F$107)/'Design Calculator'!F$107</f>
-        <v>6.6288352570829</v>
+        <v>6.4329</v>
       </c>
       <c r="G130" s="254" t="n">
         <f aca="false">2.46*('Design Calculator'!F$107+'Design Calculator'!F$108)/'Design Calculator'!F$108</f>
-        <v>65.1439572192513</v>
+        <v>63.6540298507463</v>
       </c>
       <c r="H130" s="239"/>
     </row>
@@ -29956,11 +29964,11 @@
       </c>
       <c r="F131" s="254" t="n">
         <f aca="false">2.53*('Design Calculator'!F$105+'Design Calculator'!F$106+'Design Calculator'!F$107)/'Design Calculator'!F$107</f>
-        <v>6.81746065057712</v>
+        <v>6.61595</v>
       </c>
       <c r="G131" s="254" t="n">
         <f aca="false">2.53*('Design Calculator'!F$107+'Design Calculator'!F$108)/'Design Calculator'!F$108</f>
-        <v>66.9976470588235</v>
+        <v>65.4653233830846</v>
       </c>
       <c r="H131" s="239"/>
     </row>
@@ -29971,11 +29979,11 @@
       </c>
       <c r="F132" s="254" t="n">
         <f aca="false">2.39+(('Design Calculator'!F$105+'Design Calculator'!F$106)*((2.39/'Design Calculator'!F$107)-(24/1000)))</f>
-        <v>2.56420986358867</v>
+        <v>2.37385</v>
       </c>
       <c r="G132" s="254" t="n">
         <f aca="false">2.39+('Design Calculator'!F$107*((2.39/'Design Calculator'!F$108)-(24/1000)))</f>
-        <v>61.0030673796791</v>
+        <v>59.442736318408</v>
       </c>
       <c r="H132" s="239"/>
     </row>
@@ -29986,11 +29994,11 @@
       </c>
       <c r="F133" s="254" t="n">
         <f aca="false">2.46+(('Design Calculator'!F$105+'Design Calculator'!F$106)*((2.46/'Design Calculator'!F$107)-(21/1000)))</f>
-        <v>3.2373352570829</v>
+        <v>3.0414</v>
       </c>
       <c r="G133" s="254" t="n">
         <f aca="false">2.46+('Design Calculator'!F$107*((2.46/'Design Calculator'!F$108)-(21/1000)))</f>
-        <v>63.1426572192513</v>
+        <v>61.5540298507463</v>
       </c>
       <c r="H133" s="239"/>
     </row>
@@ -30001,11 +30009,11 @@
       </c>
       <c r="F134" s="254" t="n">
         <f aca="false">2.53+(('Design Calculator'!F$105+'Design Calculator'!F$106)*((2.53/'Design Calculator'!F$107)-(16/1000)))</f>
-        <v>4.23346065057712</v>
+        <v>4.03195</v>
       </c>
       <c r="G134" s="254" t="n">
         <f aca="false">2.53+('Design Calculator'!F$107*((2.53/'Design Calculator'!F$108)-(16/1000)))</f>
-        <v>65.4728470588235</v>
+        <v>63.8653233830846</v>
       </c>
       <c r="H134" s="239"/>
     </row>
@@ -35140,7 +35148,7 @@
       </c>
       <c r="M2" s="281" t="n">
         <f aca="false">J114*1000</f>
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="N2" s="279" t="s">
         <v>108</v>
@@ -35183,7 +35191,7 @@
       </c>
       <c r="Q4" s="279" t="n">
         <f aca="false">MAX(O10:O114)</f>
-        <v>307.692307692308</v>
+        <v>400</v>
       </c>
       <c r="R4" s="279" t="s">
         <v>59</v>
@@ -35206,7 +35214,7 @@
       </c>
       <c r="Q5" s="279" t="n">
         <f aca="false">MAX(P10:P114)</f>
-        <v>615.384615384616</v>
+        <v>800</v>
       </c>
       <c r="R5" s="279" t="s">
         <v>59</v>
@@ -35218,7 +35226,7 @@
       </c>
       <c r="Q6" s="279" t="n">
         <f aca="false">MAX(Q10:Q114)</f>
-        <v>115.384615384615</v>
+        <v>150</v>
       </c>
       <c r="R6" s="279" t="s">
         <v>59</v>
@@ -35342,15 +35350,15 @@
       </c>
       <c r="F10" s="290" t="n">
         <f aca="false">I_Cout_ss+C10</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G10" s="292" t="n">
         <f aca="false">IF($F$2="YES", F10, E10)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H10" s="290" t="n">
         <f aca="false">G10-C10</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I10" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B10)/H10</f>
@@ -35378,15 +35386,15 @@
       </c>
       <c r="O10" s="279" t="n">
         <f aca="false">G10*(A10-B10)</f>
-        <v>307.692307692308</v>
+        <v>400</v>
       </c>
       <c r="P10" s="279" t="n">
         <f aca="false">(A10-B10)*(I_Cout_ss*$Q$2+C10)</f>
-        <v>615.384615384616</v>
+        <v>800</v>
       </c>
       <c r="Q10" s="279" t="n">
         <f aca="false">(A10-B10)*(I_Cout_ss*$R$2+C10)</f>
-        <v>115.384615384615</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35412,27 +35420,27 @@
       </c>
       <c r="F11" s="290" t="n">
         <f aca="false">I_Cout_ss+C11</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G11" s="292" t="n">
         <f aca="false">IF($F$2="YES", F11, E11)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H11" s="290" t="n">
         <f aca="false">G11-C11</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I11" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B11-B10)/H11</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J11" s="294" t="n">
         <f aca="false">J10+I11</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="K11" s="287" t="n">
         <f aca="false">J11*1000</f>
-        <v>0.3125</v>
+        <v>0.240384615384615</v>
       </c>
       <c r="L11" s="282" t="n">
         <f aca="false">H11/G11</f>
@@ -35448,15 +35456,15 @@
       </c>
       <c r="O11" s="279" t="n">
         <f aca="false">G11*(A11-B11)</f>
-        <v>304.733727810651</v>
+        <v>396.153846153846</v>
       </c>
       <c r="P11" s="279" t="n">
         <f aca="false">(A11-B11)*(I_Cout_ss*$Q$2+C11)</f>
-        <v>609.467455621302</v>
+        <v>792.307692307692</v>
       </c>
       <c r="Q11" s="279" t="n">
         <f aca="false">(A11-B11)*(I_Cout_ss*$R$2+C11)</f>
-        <v>114.275147928994</v>
+        <v>148.557692307692</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35482,27 +35490,27 @@
       </c>
       <c r="F12" s="290" t="n">
         <f aca="false">I_Cout_ss+C12</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G12" s="292" t="n">
         <f aca="false">IF($F$2="YES", F12, E12)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H12" s="290" t="n">
         <f aca="false">G12-C12</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I12" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B12-B11)/H12</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J12" s="294" t="n">
         <f aca="false">J11+I12</f>
-        <v>0.000625</v>
+        <v>0.000480769230769231</v>
       </c>
       <c r="K12" s="287" t="n">
         <f aca="false">J12*1000</f>
-        <v>0.625</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="L12" s="282" t="n">
         <f aca="false">H12/G12</f>
@@ -35518,15 +35526,15 @@
       </c>
       <c r="O12" s="279" t="n">
         <f aca="false">G12*(A12-B12)</f>
-        <v>301.775147928994</v>
+        <v>392.307692307692</v>
       </c>
       <c r="P12" s="279" t="n">
         <f aca="false">(A12-B12)*(I_Cout_ss*$Q$2+C12)</f>
-        <v>603.550295857988</v>
+        <v>784.615384615385</v>
       </c>
       <c r="Q12" s="279" t="n">
         <f aca="false">(A12-B12)*(I_Cout_ss*$R$2+C12)</f>
-        <v>113.165680473373</v>
+        <v>147.115384615385</v>
       </c>
       <c r="X12" s="295" t="s">
         <v>436</v>
@@ -35556,27 +35564,27 @@
       </c>
       <c r="F13" s="290" t="n">
         <f aca="false">I_Cout_ss+C13</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G13" s="292" t="n">
         <f aca="false">IF($F$2="YES", F13, E13)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H13" s="290" t="n">
         <f aca="false">G13-C13</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I13" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B13-B12)/H13</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J13" s="294" t="n">
         <f aca="false">J12+I13</f>
-        <v>0.0009375</v>
+        <v>0.000721153846153846</v>
       </c>
       <c r="K13" s="287" t="n">
         <f aca="false">J13*1000</f>
-        <v>0.9375</v>
+        <v>0.721153846153846</v>
       </c>
       <c r="L13" s="282" t="n">
         <f aca="false">H13/G13</f>
@@ -35592,15 +35600,15 @@
       </c>
       <c r="O13" s="279" t="n">
         <f aca="false">G13*(A13-B13)</f>
-        <v>298.816568047337</v>
+        <v>388.461538461538</v>
       </c>
       <c r="P13" s="279" t="n">
         <f aca="false">(A13-B13)*(I_Cout_ss*$Q$2+C13)</f>
-        <v>597.633136094675</v>
+        <v>776.923076923077</v>
       </c>
       <c r="Q13" s="279" t="n">
         <f aca="false">(A13-B13)*(I_Cout_ss*$R$2+C13)</f>
-        <v>112.056213017751</v>
+        <v>145.673076923077</v>
       </c>
       <c r="X13" s="296" t="s">
         <v>437</v>
@@ -35632,27 +35640,27 @@
       </c>
       <c r="F14" s="290" t="n">
         <f aca="false">I_Cout_ss+C14</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G14" s="292" t="n">
         <f aca="false">IF($F$2="YES", F14, E14)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H14" s="290" t="n">
         <f aca="false">G14-C14</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I14" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B14-B13)/H14</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J14" s="294" t="n">
         <f aca="false">J13+I14</f>
-        <v>0.00125</v>
+        <v>0.000961538461538462</v>
       </c>
       <c r="K14" s="287" t="n">
         <f aca="false">J14*1000</f>
-        <v>1.25</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="L14" s="282" t="n">
         <f aca="false">H14/G14</f>
@@ -35668,15 +35676,15 @@
       </c>
       <c r="O14" s="279" t="n">
         <f aca="false">G14*(A14-B14)</f>
-        <v>295.857988165681</v>
+        <v>384.615384615385</v>
       </c>
       <c r="P14" s="279" t="n">
         <f aca="false">(A14-B14)*(I_Cout_ss*$Q$2+C14)</f>
-        <v>591.715976331361</v>
+        <v>769.230769230769</v>
       </c>
       <c r="Q14" s="279" t="n">
         <f aca="false">(A14-B14)*(I_Cout_ss*$R$2+C14)</f>
-        <v>110.94674556213</v>
+        <v>144.230769230769</v>
       </c>
       <c r="X14" s="296" t="s">
         <v>438</v>
@@ -35708,27 +35716,27 @@
       </c>
       <c r="F15" s="290" t="n">
         <f aca="false">I_Cout_ss+C15</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G15" s="292" t="n">
         <f aca="false">IF($F$2="YES", F15, E15)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H15" s="290" t="n">
         <f aca="false">G15-C15</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I15" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B15-B14)/H15</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J15" s="294" t="n">
         <f aca="false">J14+I15</f>
-        <v>0.0015625</v>
+        <v>0.00120192307692308</v>
       </c>
       <c r="K15" s="287" t="n">
         <f aca="false">J15*1000</f>
-        <v>1.5625</v>
+        <v>1.20192307692308</v>
       </c>
       <c r="L15" s="282" t="n">
         <f aca="false">H15/G15</f>
@@ -35744,15 +35752,15 @@
       </c>
       <c r="O15" s="279" t="n">
         <f aca="false">G15*(A15-B15)</f>
-        <v>292.899408284024</v>
+        <v>380.769230769231</v>
       </c>
       <c r="P15" s="279" t="n">
         <f aca="false">(A15-B15)*(I_Cout_ss*$Q$2+C15)</f>
-        <v>585.798816568047</v>
+        <v>761.538461538462</v>
       </c>
       <c r="Q15" s="279" t="n">
         <f aca="false">(A15-B15)*(I_Cout_ss*$R$2+C15)</f>
-        <v>109.837278106509</v>
+        <v>142.788461538462</v>
       </c>
       <c r="X15" s="296" t="s">
         <v>439</v>
@@ -35785,27 +35793,27 @@
       </c>
       <c r="F16" s="290" t="n">
         <f aca="false">I_Cout_ss+C16</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G16" s="292" t="n">
         <f aca="false">IF($F$2="YES", F16, E16)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H16" s="290" t="n">
         <f aca="false">G16-C16</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I16" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B16-B15)/H16</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J16" s="294" t="n">
         <f aca="false">J15+I16</f>
-        <v>0.001875</v>
+        <v>0.00144230769230769</v>
       </c>
       <c r="K16" s="287" t="n">
         <f aca="false">J16*1000</f>
-        <v>1.875</v>
+        <v>1.44230769230769</v>
       </c>
       <c r="L16" s="282" t="n">
         <f aca="false">H16/G16</f>
@@ -35821,15 +35829,15 @@
       </c>
       <c r="O16" s="279" t="n">
         <f aca="false">G16*(A16-B16)</f>
-        <v>289.940828402367</v>
+        <v>376.923076923077</v>
       </c>
       <c r="P16" s="279" t="n">
         <f aca="false">(A16-B16)*(I_Cout_ss*$Q$2+C16)</f>
-        <v>579.881656804734</v>
+        <v>753.846153846154</v>
       </c>
       <c r="Q16" s="279" t="n">
         <f aca="false">(A16-B16)*(I_Cout_ss*$R$2+C16)</f>
-        <v>108.727810650888</v>
+        <v>141.346153846154</v>
       </c>
       <c r="X16" s="297"/>
       <c r="Y16" s="297"/>
@@ -35857,27 +35865,27 @@
       </c>
       <c r="F17" s="290" t="n">
         <f aca="false">I_Cout_ss+C17</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G17" s="292" t="n">
         <f aca="false">IF($F$2="YES", F17, E17)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H17" s="290" t="n">
         <f aca="false">G17-C17</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I17" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B17-B16)/H17</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J17" s="294" t="n">
         <f aca="false">J16+I17</f>
-        <v>0.0021875</v>
+        <v>0.00168269230769231</v>
       </c>
       <c r="K17" s="287" t="n">
         <f aca="false">J17*1000</f>
-        <v>2.1875</v>
+        <v>1.68269230769231</v>
       </c>
       <c r="L17" s="282" t="n">
         <f aca="false">H17/G17</f>
@@ -35893,15 +35901,15 @@
       </c>
       <c r="O17" s="279" t="n">
         <f aca="false">G17*(A17-B17)</f>
-        <v>286.98224852071</v>
+        <v>373.076923076923</v>
       </c>
       <c r="P17" s="279" t="n">
         <f aca="false">(A17-B17)*(I_Cout_ss*$Q$2+C17)</f>
-        <v>573.96449704142</v>
+        <v>746.153846153846</v>
       </c>
       <c r="Q17" s="279" t="n">
         <f aca="false">(A17-B17)*(I_Cout_ss*$R$2+C17)</f>
-        <v>107.618343195266</v>
+        <v>139.903846153846</v>
       </c>
       <c r="X17" s="296" t="s">
         <v>388</v>
@@ -35933,27 +35941,27 @@
       </c>
       <c r="F18" s="290" t="n">
         <f aca="false">I_Cout_ss+C18</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G18" s="292" t="n">
         <f aca="false">IF($F$2="YES", F18, E18)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H18" s="290" t="n">
         <f aca="false">G18-C18</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I18" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B18-B17)/H18</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J18" s="294" t="n">
         <f aca="false">J17+I18</f>
-        <v>0.0025</v>
+        <v>0.00192307692307692</v>
       </c>
       <c r="K18" s="287" t="n">
         <f aca="false">J18*1000</f>
-        <v>2.5</v>
+        <v>1.92307692307692</v>
       </c>
       <c r="L18" s="282" t="n">
         <f aca="false">H18/G18</f>
@@ -35965,19 +35973,19 @@
       </c>
       <c r="N18" s="279" t="n">
         <f aca="false">I18*G18*(A18-B18)</f>
-        <v>0.0887573964497042</v>
+        <v>0.0887573964497041</v>
       </c>
       <c r="O18" s="279" t="n">
         <f aca="false">G18*(A18-B18)</f>
-        <v>284.023668639053</v>
+        <v>369.230769230769</v>
       </c>
       <c r="P18" s="279" t="n">
         <f aca="false">(A18-B18)*(I_Cout_ss*$Q$2+C18)</f>
-        <v>568.047337278107</v>
+        <v>738.461538461538</v>
       </c>
       <c r="Q18" s="279" t="n">
         <f aca="false">(A18-B18)*(I_Cout_ss*$R$2+C18)</f>
-        <v>106.508875739645</v>
+        <v>138.461538461538</v>
       </c>
       <c r="X18" s="296" t="s">
         <v>440</v>
@@ -36010,27 +36018,27 @@
       </c>
       <c r="F19" s="290" t="n">
         <f aca="false">I_Cout_ss+C19</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G19" s="292" t="n">
         <f aca="false">IF($F$2="YES", F19, E19)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H19" s="290" t="n">
         <f aca="false">G19-C19</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I19" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B19-B18)/H19</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J19" s="294" t="n">
         <f aca="false">J18+I19</f>
-        <v>0.0028125</v>
+        <v>0.00216346153846154</v>
       </c>
       <c r="K19" s="287" t="n">
         <f aca="false">J19*1000</f>
-        <v>2.8125</v>
+        <v>2.16346153846154</v>
       </c>
       <c r="L19" s="282" t="n">
         <f aca="false">H19/G19</f>
@@ -36046,15 +36054,15 @@
       </c>
       <c r="O19" s="279" t="n">
         <f aca="false">G19*(A19-B19)</f>
-        <v>281.065088757396</v>
+        <v>365.384615384615</v>
       </c>
       <c r="P19" s="279" t="n">
         <f aca="false">(A19-B19)*(I_Cout_ss*$Q$2+C19)</f>
-        <v>562.130177514793</v>
+        <v>730.769230769231</v>
       </c>
       <c r="Q19" s="279" t="n">
         <f aca="false">(A19-B19)*(I_Cout_ss*$R$2+C19)</f>
-        <v>105.399408284024</v>
+        <v>137.019230769231</v>
       </c>
       <c r="X19" s="297"/>
       <c r="Y19" s="297"/>
@@ -36082,27 +36090,27 @@
       </c>
       <c r="F20" s="290" t="n">
         <f aca="false">I_Cout_ss+C20</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G20" s="292" t="n">
         <f aca="false">IF($F$2="YES", F20, E20)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H20" s="290" t="n">
         <f aca="false">G20-C20</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I20" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B20-B19)/H20</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J20" s="294" t="n">
         <f aca="false">J19+I20</f>
-        <v>0.003125</v>
+        <v>0.00240384615384615</v>
       </c>
       <c r="K20" s="287" t="n">
         <f aca="false">J20*1000</f>
-        <v>3.125</v>
+        <v>2.40384615384615</v>
       </c>
       <c r="L20" s="282" t="n">
         <f aca="false">H20/G20</f>
@@ -36118,15 +36126,15 @@
       </c>
       <c r="O20" s="279" t="n">
         <f aca="false">G20*(A20-B20)</f>
-        <v>278.10650887574</v>
+        <v>361.538461538462</v>
       </c>
       <c r="P20" s="279" t="n">
         <f aca="false">(A20-B20)*(I_Cout_ss*$Q$2+C20)</f>
-        <v>556.213017751479</v>
+        <v>723.076923076923</v>
       </c>
       <c r="Q20" s="279" t="n">
         <f aca="false">(A20-B20)*(I_Cout_ss*$R$2+C20)</f>
-        <v>104.289940828402</v>
+        <v>135.576923076923</v>
       </c>
       <c r="X20" s="296" t="s">
         <v>441</v>
@@ -36158,27 +36166,27 @@
       </c>
       <c r="F21" s="290" t="n">
         <f aca="false">I_Cout_ss+C21</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G21" s="292" t="n">
         <f aca="false">IF($F$2="YES", F21, E21)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H21" s="290" t="n">
         <f aca="false">G21-C21</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I21" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B21-B20)/H21</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J21" s="294" t="n">
         <f aca="false">J20+I21</f>
-        <v>0.0034375</v>
+        <v>0.00264423076923077</v>
       </c>
       <c r="K21" s="287" t="n">
         <f aca="false">J21*1000</f>
-        <v>3.4375</v>
+        <v>2.64423076923077</v>
       </c>
       <c r="L21" s="282" t="n">
         <f aca="false">H21/G21</f>
@@ -36194,15 +36202,15 @@
       </c>
       <c r="O21" s="279" t="n">
         <f aca="false">G21*(A21-B21)</f>
-        <v>275.147928994083</v>
+        <v>357.692307692308</v>
       </c>
       <c r="P21" s="279" t="n">
         <f aca="false">(A21-B21)*(I_Cout_ss*$Q$2+C21)</f>
-        <v>550.295857988166</v>
+        <v>715.384615384615</v>
       </c>
       <c r="Q21" s="279" t="n">
         <f aca="false">(A21-B21)*(I_Cout_ss*$R$2+C21)</f>
-        <v>103.180473372781</v>
+        <v>134.134615384615</v>
       </c>
       <c r="X21" s="296" t="s">
         <v>442</v>
@@ -36234,27 +36242,27 @@
       </c>
       <c r="F22" s="290" t="n">
         <f aca="false">I_Cout_ss+C22</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G22" s="292" t="n">
         <f aca="false">IF($F$2="YES", F22, E22)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H22" s="290" t="n">
         <f aca="false">G22-C22</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I22" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B22-B21)/H22</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J22" s="294" t="n">
         <f aca="false">J21+I22</f>
-        <v>0.00375</v>
+        <v>0.00288461538461538</v>
       </c>
       <c r="K22" s="287" t="n">
         <f aca="false">J22*1000</f>
-        <v>3.75</v>
+        <v>2.88461538461538</v>
       </c>
       <c r="L22" s="282" t="n">
         <f aca="false">H22/G22</f>
@@ -36270,15 +36278,15 @@
       </c>
       <c r="O22" s="279" t="n">
         <f aca="false">G22*(A22-B22)</f>
-        <v>272.189349112426</v>
+        <v>353.846153846154</v>
       </c>
       <c r="P22" s="279" t="n">
         <f aca="false">(A22-B22)*(I_Cout_ss*$Q$2+C22)</f>
-        <v>544.378698224852</v>
+        <v>707.692307692308</v>
       </c>
       <c r="Q22" s="279" t="n">
         <f aca="false">(A22-B22)*(I_Cout_ss*$R$2+C22)</f>
-        <v>102.07100591716</v>
+        <v>132.692307692308</v>
       </c>
       <c r="X22" s="296" t="s">
         <v>439</v>
@@ -36311,27 +36319,27 @@
       </c>
       <c r="F23" s="290" t="n">
         <f aca="false">I_Cout_ss+C23</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G23" s="292" t="n">
         <f aca="false">IF($F$2="YES", F23, E23)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H23" s="290" t="n">
         <f aca="false">G23-C23</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I23" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B23-B22)/H23</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J23" s="294" t="n">
         <f aca="false">J22+I23</f>
-        <v>0.0040625</v>
+        <v>0.003125</v>
       </c>
       <c r="K23" s="287" t="n">
         <f aca="false">J23*1000</f>
-        <v>4.0625</v>
+        <v>3.125</v>
       </c>
       <c r="L23" s="282" t="n">
         <f aca="false">H23/G23</f>
@@ -36347,15 +36355,15 @@
       </c>
       <c r="O23" s="279" t="n">
         <f aca="false">G23*(A23-B23)</f>
-        <v>269.230769230769</v>
+        <v>350</v>
       </c>
       <c r="P23" s="279" t="n">
         <f aca="false">(A23-B23)*(I_Cout_ss*$Q$2+C23)</f>
-        <v>538.461538461538</v>
+        <v>700</v>
       </c>
       <c r="Q23" s="279" t="n">
         <f aca="false">(A23-B23)*(I_Cout_ss*$R$2+C23)</f>
-        <v>100.961538461538</v>
+        <v>131.25</v>
       </c>
       <c r="X23" s="297"/>
       <c r="Y23" s="297"/>
@@ -36383,27 +36391,27 @@
       </c>
       <c r="F24" s="290" t="n">
         <f aca="false">I_Cout_ss+C24</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G24" s="292" t="n">
         <f aca="false">IF($F$2="YES", F24, E24)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H24" s="290" t="n">
         <f aca="false">G24-C24</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I24" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B24-B23)/H24</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J24" s="294" t="n">
         <f aca="false">J23+I24</f>
-        <v>0.004375</v>
+        <v>0.00336538461538462</v>
       </c>
       <c r="K24" s="287" t="n">
         <f aca="false">J24*1000</f>
-        <v>4.375</v>
+        <v>3.36538461538462</v>
       </c>
       <c r="L24" s="282" t="n">
         <f aca="false">H24/G24</f>
@@ -36419,15 +36427,15 @@
       </c>
       <c r="O24" s="279" t="n">
         <f aca="false">G24*(A24-B24)</f>
-        <v>266.272189349112</v>
+        <v>346.153846153846</v>
       </c>
       <c r="P24" s="279" t="n">
         <f aca="false">(A24-B24)*(I_Cout_ss*$Q$2+C24)</f>
-        <v>532.544378698225</v>
+        <v>692.307692307692</v>
       </c>
       <c r="Q24" s="279" t="n">
         <f aca="false">(A24-B24)*(I_Cout_ss*$R$2+C24)</f>
-        <v>99.8520710059172</v>
+        <v>129.807692307692</v>
       </c>
       <c r="X24" s="296" t="s">
         <v>443</v>
@@ -36460,27 +36468,27 @@
       </c>
       <c r="F25" s="290" t="n">
         <f aca="false">I_Cout_ss+C25</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G25" s="292" t="n">
         <f aca="false">IF($F$2="YES", F25, E25)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H25" s="290" t="n">
         <f aca="false">G25-C25</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I25" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B25-B24)/H25</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J25" s="294" t="n">
         <f aca="false">J24+I25</f>
-        <v>0.0046875</v>
+        <v>0.00360576923076923</v>
       </c>
       <c r="K25" s="287" t="n">
         <f aca="false">J25*1000</f>
-        <v>4.6875</v>
+        <v>3.60576923076923</v>
       </c>
       <c r="L25" s="282" t="n">
         <f aca="false">H25/G25</f>
@@ -36496,15 +36504,15 @@
       </c>
       <c r="O25" s="279" t="n">
         <f aca="false">G25*(A25-B25)</f>
-        <v>263.313609467456</v>
+        <v>342.307692307692</v>
       </c>
       <c r="P25" s="279" t="n">
         <f aca="false">(A25-B25)*(I_Cout_ss*$Q$2+C25)</f>
-        <v>526.627218934911</v>
+        <v>684.615384615385</v>
       </c>
       <c r="Q25" s="279" t="n">
         <f aca="false">(A25-B25)*(I_Cout_ss*$R$2+C25)</f>
-        <v>98.7426035502959</v>
+        <v>128.365384615385</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36530,27 +36538,27 @@
       </c>
       <c r="F26" s="290" t="n">
         <f aca="false">I_Cout_ss+C26</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G26" s="292" t="n">
         <f aca="false">IF($F$2="YES", F26, E26)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H26" s="290" t="n">
         <f aca="false">G26-C26</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I26" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B26-B25)/H26</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J26" s="294" t="n">
         <f aca="false">J25+I26</f>
-        <v>0.005</v>
+        <v>0.00384615384615385</v>
       </c>
       <c r="K26" s="287" t="n">
         <f aca="false">J26*1000</f>
-        <v>5</v>
+        <v>3.84615384615385</v>
       </c>
       <c r="L26" s="282" t="n">
         <f aca="false">H26/G26</f>
@@ -36566,15 +36574,15 @@
       </c>
       <c r="O26" s="279" t="n">
         <f aca="false">G26*(A26-B26)</f>
-        <v>260.355029585799</v>
+        <v>338.461538461538</v>
       </c>
       <c r="P26" s="279" t="n">
         <f aca="false">(A26-B26)*(I_Cout_ss*$Q$2+C26)</f>
-        <v>520.710059171598</v>
+        <v>676.923076923077</v>
       </c>
       <c r="Q26" s="279" t="n">
         <f aca="false">(A26-B26)*(I_Cout_ss*$R$2+C26)</f>
-        <v>97.6331360946746</v>
+        <v>126.923076923077</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36600,27 +36608,27 @@
       </c>
       <c r="F27" s="290" t="n">
         <f aca="false">I_Cout_ss+C27</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G27" s="292" t="n">
         <f aca="false">IF($F$2="YES", F27, E27)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H27" s="290" t="n">
         <f aca="false">G27-C27</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I27" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B27-B26)/H27</f>
-        <v>0.0003125</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J27" s="294" t="n">
         <f aca="false">J26+I27</f>
-        <v>0.0053125</v>
+        <v>0.00408653846153846</v>
       </c>
       <c r="K27" s="287" t="n">
         <f aca="false">J27*1000</f>
-        <v>5.3125</v>
+        <v>4.08653846153846</v>
       </c>
       <c r="L27" s="282" t="n">
         <f aca="false">H27/G27</f>
@@ -36636,15 +36644,15 @@
       </c>
       <c r="O27" s="279" t="n">
         <f aca="false">G27*(A27-B27)</f>
-        <v>257.396449704142</v>
+        <v>334.615384615385</v>
       </c>
       <c r="P27" s="279" t="n">
         <f aca="false">(A27-B27)*(I_Cout_ss*$Q$2+C27)</f>
-        <v>514.792899408284</v>
+        <v>669.230769230769</v>
       </c>
       <c r="Q27" s="279" t="n">
         <f aca="false">(A27-B27)*(I_Cout_ss*$R$2+C27)</f>
-        <v>96.5236686390533</v>
+        <v>125.480769230769</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36670,27 +36678,27 @@
       </c>
       <c r="F28" s="290" t="n">
         <f aca="false">I_Cout_ss+C28</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G28" s="292" t="n">
         <f aca="false">IF($F$2="YES", F28, E28)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H28" s="290" t="n">
         <f aca="false">G28-C28</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I28" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B28-B27)/H28</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J28" s="294" t="n">
         <f aca="false">J27+I28</f>
-        <v>0.005625</v>
+        <v>0.00432692307692308</v>
       </c>
       <c r="K28" s="287" t="n">
         <f aca="false">J28*1000</f>
-        <v>5.625</v>
+        <v>4.32692307692308</v>
       </c>
       <c r="L28" s="282" t="n">
         <f aca="false">H28/G28</f>
@@ -36706,15 +36714,15 @@
       </c>
       <c r="O28" s="279" t="n">
         <f aca="false">G28*(A28-B28)</f>
-        <v>254.437869822485</v>
+        <v>330.769230769231</v>
       </c>
       <c r="P28" s="279" t="n">
         <f aca="false">(A28-B28)*(I_Cout_ss*$Q$2+C28)</f>
-        <v>508.87573964497</v>
+        <v>661.538461538462</v>
       </c>
       <c r="Q28" s="279" t="n">
         <f aca="false">(A28-B28)*(I_Cout_ss*$R$2+C28)</f>
-        <v>95.414201183432</v>
+        <v>124.038461538462</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36740,27 +36748,27 @@
       </c>
       <c r="F29" s="290" t="n">
         <f aca="false">I_Cout_ss+C29</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G29" s="292" t="n">
         <f aca="false">IF($F$2="YES", F29, E29)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H29" s="290" t="n">
         <f aca="false">G29-C29</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I29" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B29-B28)/H29</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J29" s="294" t="n">
         <f aca="false">J28+I29</f>
-        <v>0.0059375</v>
+        <v>0.00456730769230769</v>
       </c>
       <c r="K29" s="287" t="n">
         <f aca="false">J29*1000</f>
-        <v>5.9375</v>
+        <v>4.56730769230769</v>
       </c>
       <c r="L29" s="282" t="n">
         <f aca="false">H29/G29</f>
@@ -36776,15 +36784,15 @@
       </c>
       <c r="O29" s="279" t="n">
         <f aca="false">G29*(A29-B29)</f>
-        <v>251.479289940828</v>
+        <v>326.923076923077</v>
       </c>
       <c r="P29" s="279" t="n">
         <f aca="false">(A29-B29)*(I_Cout_ss*$Q$2+C29)</f>
-        <v>502.958579881657</v>
+        <v>653.846153846154</v>
       </c>
       <c r="Q29" s="279" t="n">
         <f aca="false">(A29-B29)*(I_Cout_ss*$R$2+C29)</f>
-        <v>94.3047337278107</v>
+        <v>122.596153846154</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36810,27 +36818,27 @@
       </c>
       <c r="F30" s="290" t="n">
         <f aca="false">I_Cout_ss+C30</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G30" s="292" t="n">
         <f aca="false">IF($F$2="YES", F30, E30)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H30" s="290" t="n">
         <f aca="false">G30-C30</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I30" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B30-B29)/H30</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J30" s="294" t="n">
         <f aca="false">J29+I30</f>
-        <v>0.00625</v>
+        <v>0.00480769230769231</v>
       </c>
       <c r="K30" s="287" t="n">
         <f aca="false">J30*1000</f>
-        <v>6.25</v>
+        <v>4.80769230769231</v>
       </c>
       <c r="L30" s="282" t="n">
         <f aca="false">H30/G30</f>
@@ -36846,15 +36854,15 @@
       </c>
       <c r="O30" s="279" t="n">
         <f aca="false">G30*(A30-B30)</f>
-        <v>248.520710059172</v>
+        <v>323.076923076923</v>
       </c>
       <c r="P30" s="279" t="n">
         <f aca="false">(A30-B30)*(I_Cout_ss*$Q$2+C30)</f>
-        <v>497.041420118343</v>
+        <v>646.153846153846</v>
       </c>
       <c r="Q30" s="279" t="n">
         <f aca="false">(A30-B30)*(I_Cout_ss*$R$2+C30)</f>
-        <v>93.1952662721894</v>
+        <v>121.153846153846</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36880,27 +36888,27 @@
       </c>
       <c r="F31" s="290" t="n">
         <f aca="false">I_Cout_ss+C31</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G31" s="292" t="n">
         <f aca="false">IF($F$2="YES", F31, E31)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H31" s="290" t="n">
         <f aca="false">G31-C31</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I31" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B31-B30)/H31</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J31" s="294" t="n">
         <f aca="false">J30+I31</f>
-        <v>0.0065625</v>
+        <v>0.00504807692307693</v>
       </c>
       <c r="K31" s="287" t="n">
         <f aca="false">J31*1000</f>
-        <v>6.5625</v>
+        <v>5.04807692307693</v>
       </c>
       <c r="L31" s="282" t="n">
         <f aca="false">H31/G31</f>
@@ -36916,15 +36924,15 @@
       </c>
       <c r="O31" s="279" t="n">
         <f aca="false">G31*(A31-B31)</f>
-        <v>245.562130177515</v>
+        <v>319.230769230769</v>
       </c>
       <c r="P31" s="279" t="n">
         <f aca="false">(A31-B31)*(I_Cout_ss*$Q$2+C31)</f>
-        <v>491.12426035503</v>
+        <v>638.461538461538</v>
       </c>
       <c r="Q31" s="279" t="n">
         <f aca="false">(A31-B31)*(I_Cout_ss*$R$2+C31)</f>
-        <v>92.0857988165681</v>
+        <v>119.711538461538</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36950,27 +36958,27 @@
       </c>
       <c r="F32" s="290" t="n">
         <f aca="false">I_Cout_ss+C32</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G32" s="292" t="n">
         <f aca="false">IF($F$2="YES", F32, E32)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H32" s="290" t="n">
         <f aca="false">G32-C32</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I32" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B32-B31)/H32</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J32" s="294" t="n">
         <f aca="false">J31+I32</f>
-        <v>0.006875</v>
+        <v>0.00528846153846154</v>
       </c>
       <c r="K32" s="287" t="n">
         <f aca="false">J32*1000</f>
-        <v>6.875</v>
+        <v>5.28846153846154</v>
       </c>
       <c r="L32" s="282" t="n">
         <f aca="false">H32/G32</f>
@@ -36986,15 +36994,15 @@
       </c>
       <c r="O32" s="279" t="n">
         <f aca="false">G32*(A32-B32)</f>
-        <v>242.603550295858</v>
+        <v>315.384615384615</v>
       </c>
       <c r="P32" s="279" t="n">
         <f aca="false">(A32-B32)*(I_Cout_ss*$Q$2+C32)</f>
-        <v>485.207100591716</v>
+        <v>630.769230769231</v>
       </c>
       <c r="Q32" s="279" t="n">
         <f aca="false">(A32-B32)*(I_Cout_ss*$R$2+C32)</f>
-        <v>90.9763313609468</v>
+        <v>118.269230769231</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37020,27 +37028,27 @@
       </c>
       <c r="F33" s="290" t="n">
         <f aca="false">I_Cout_ss+C33</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G33" s="292" t="n">
         <f aca="false">IF($F$2="YES", F33, E33)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H33" s="290" t="n">
         <f aca="false">G33-C33</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I33" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B33-B32)/H33</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J33" s="294" t="n">
         <f aca="false">J32+I33</f>
-        <v>0.0071875</v>
+        <v>0.00552884615384616</v>
       </c>
       <c r="K33" s="287" t="n">
         <f aca="false">J33*1000</f>
-        <v>7.1875</v>
+        <v>5.52884615384616</v>
       </c>
       <c r="L33" s="282" t="n">
         <f aca="false">H33/G33</f>
@@ -37056,15 +37064,15 @@
       </c>
       <c r="O33" s="279" t="n">
         <f aca="false">G33*(A33-B33)</f>
-        <v>239.644970414201</v>
+        <v>311.538461538462</v>
       </c>
       <c r="P33" s="279" t="n">
         <f aca="false">(A33-B33)*(I_Cout_ss*$Q$2+C33)</f>
-        <v>479.289940828402</v>
+        <v>623.076923076923</v>
       </c>
       <c r="Q33" s="279" t="n">
         <f aca="false">(A33-B33)*(I_Cout_ss*$R$2+C33)</f>
-        <v>89.8668639053255</v>
+        <v>116.826923076923</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37090,27 +37098,27 @@
       </c>
       <c r="F34" s="290" t="n">
         <f aca="false">I_Cout_ss+C34</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G34" s="292" t="n">
         <f aca="false">IF($F$2="YES", F34, E34)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H34" s="290" t="n">
         <f aca="false">G34-C34</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I34" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B34-B33)/H34</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J34" s="294" t="n">
         <f aca="false">J33+I34</f>
-        <v>0.0075</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="K34" s="287" t="n">
         <f aca="false">J34*1000</f>
-        <v>7.5</v>
+        <v>5.76923076923077</v>
       </c>
       <c r="L34" s="282" t="n">
         <f aca="false">H34/G34</f>
@@ -37126,15 +37134,15 @@
       </c>
       <c r="O34" s="279" t="n">
         <f aca="false">G34*(A34-B34)</f>
-        <v>236.686390532544</v>
+        <v>307.692307692308</v>
       </c>
       <c r="P34" s="279" t="n">
         <f aca="false">(A34-B34)*(I_Cout_ss*$Q$2+C34)</f>
-        <v>473.372781065089</v>
+        <v>615.384615384615</v>
       </c>
       <c r="Q34" s="279" t="n">
         <f aca="false">(A34-B34)*(I_Cout_ss*$R$2+C34)</f>
-        <v>88.7573964497041</v>
+        <v>115.384615384615</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37160,27 +37168,27 @@
       </c>
       <c r="F35" s="290" t="n">
         <f aca="false">I_Cout_ss+C35</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G35" s="292" t="n">
         <f aca="false">IF($F$2="YES", F35, E35)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H35" s="290" t="n">
         <f aca="false">G35-C35</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I35" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B35-B34)/H35</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J35" s="294" t="n">
         <f aca="false">J34+I35</f>
-        <v>0.0078125</v>
+        <v>0.00600961538461539</v>
       </c>
       <c r="K35" s="287" t="n">
         <f aca="false">J35*1000</f>
-        <v>7.8125</v>
+        <v>6.00961538461539</v>
       </c>
       <c r="L35" s="282" t="n">
         <f aca="false">H35/G35</f>
@@ -37196,15 +37204,15 @@
       </c>
       <c r="O35" s="279" t="n">
         <f aca="false">G35*(A35-B35)</f>
-        <v>233.727810650888</v>
+        <v>303.846153846154</v>
       </c>
       <c r="P35" s="279" t="n">
         <f aca="false">(A35-B35)*(I_Cout_ss*$Q$2+C35)</f>
-        <v>467.455621301775</v>
+        <v>607.692307692308</v>
       </c>
       <c r="Q35" s="279" t="n">
         <f aca="false">(A35-B35)*(I_Cout_ss*$R$2+C35)</f>
-        <v>87.6479289940828</v>
+        <v>113.942307692308</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37230,27 +37238,27 @@
       </c>
       <c r="F36" s="290" t="n">
         <f aca="false">I_Cout_ss+C36</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G36" s="292" t="n">
         <f aca="false">IF($F$2="YES", F36, E36)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H36" s="290" t="n">
         <f aca="false">G36-C36</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I36" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B36-B35)/H36</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J36" s="294" t="n">
         <f aca="false">J35+I36</f>
-        <v>0.008125</v>
+        <v>0.00625</v>
       </c>
       <c r="K36" s="287" t="n">
         <f aca="false">J36*1000</f>
-        <v>8.125</v>
+        <v>6.25</v>
       </c>
       <c r="L36" s="282" t="n">
         <f aca="false">H36/G36</f>
@@ -37266,15 +37274,15 @@
       </c>
       <c r="O36" s="279" t="n">
         <f aca="false">G36*(A36-B36)</f>
-        <v>230.769230769231</v>
+        <v>300</v>
       </c>
       <c r="P36" s="279" t="n">
         <f aca="false">(A36-B36)*(I_Cout_ss*$Q$2+C36)</f>
-        <v>461.538461538462</v>
+        <v>600</v>
       </c>
       <c r="Q36" s="279" t="n">
         <f aca="false">(A36-B36)*(I_Cout_ss*$R$2+C36)</f>
-        <v>86.5384615384616</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37300,27 +37308,27 @@
       </c>
       <c r="F37" s="290" t="n">
         <f aca="false">I_Cout_ss+C37</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G37" s="292" t="n">
         <f aca="false">IF($F$2="YES", F37, E37)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H37" s="290" t="n">
         <f aca="false">G37-C37</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I37" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B37-B36)/H37</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J37" s="294" t="n">
         <f aca="false">J36+I37</f>
-        <v>0.0084375</v>
+        <v>0.00649038461538462</v>
       </c>
       <c r="K37" s="287" t="n">
         <f aca="false">J37*1000</f>
-        <v>8.4375</v>
+        <v>6.49038461538462</v>
       </c>
       <c r="L37" s="282" t="n">
         <f aca="false">H37/G37</f>
@@ -37336,15 +37344,15 @@
       </c>
       <c r="O37" s="279" t="n">
         <f aca="false">G37*(A37-B37)</f>
-        <v>227.810650887574</v>
+        <v>296.153846153846</v>
       </c>
       <c r="P37" s="279" t="n">
         <f aca="false">(A37-B37)*(I_Cout_ss*$Q$2+C37)</f>
-        <v>455.621301775148</v>
+        <v>592.307692307692</v>
       </c>
       <c r="Q37" s="279" t="n">
         <f aca="false">(A37-B37)*(I_Cout_ss*$R$2+C37)</f>
-        <v>85.4289940828402</v>
+        <v>111.057692307692</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37370,27 +37378,27 @@
       </c>
       <c r="F38" s="290" t="n">
         <f aca="false">I_Cout_ss+C38</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G38" s="292" t="n">
         <f aca="false">IF($F$2="YES", F38, E38)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H38" s="290" t="n">
         <f aca="false">G38-C38</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I38" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B38-B37)/H38</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J38" s="294" t="n">
         <f aca="false">J37+I38</f>
-        <v>0.00875</v>
+        <v>0.00673076923076924</v>
       </c>
       <c r="K38" s="287" t="n">
         <f aca="false">J38*1000</f>
-        <v>8.75</v>
+        <v>6.73076923076924</v>
       </c>
       <c r="L38" s="282" t="n">
         <f aca="false">H38/G38</f>
@@ -37406,15 +37414,15 @@
       </c>
       <c r="O38" s="279" t="n">
         <f aca="false">G38*(A38-B38)</f>
-        <v>224.852071005917</v>
+        <v>292.307692307692</v>
       </c>
       <c r="P38" s="279" t="n">
         <f aca="false">(A38-B38)*(I_Cout_ss*$Q$2+C38)</f>
-        <v>449.704142011834</v>
+        <v>584.615384615385</v>
       </c>
       <c r="Q38" s="279" t="n">
         <f aca="false">(A38-B38)*(I_Cout_ss*$R$2+C38)</f>
-        <v>84.3195266272189</v>
+        <v>109.615384615385</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37440,27 +37448,27 @@
       </c>
       <c r="F39" s="290" t="n">
         <f aca="false">I_Cout_ss+C39</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G39" s="292" t="n">
         <f aca="false">IF($F$2="YES", F39, E39)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H39" s="290" t="n">
         <f aca="false">G39-C39</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I39" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B39-B38)/H39</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J39" s="294" t="n">
         <f aca="false">J38+I39</f>
-        <v>0.0090625</v>
+        <v>0.00697115384615385</v>
       </c>
       <c r="K39" s="287" t="n">
         <f aca="false">J39*1000</f>
-        <v>9.0625</v>
+        <v>6.97115384615385</v>
       </c>
       <c r="L39" s="282" t="n">
         <f aca="false">H39/G39</f>
@@ -37476,15 +37484,15 @@
       </c>
       <c r="O39" s="279" t="n">
         <f aca="false">G39*(A39-B39)</f>
-        <v>221.89349112426</v>
+        <v>288.461538461538</v>
       </c>
       <c r="P39" s="279" t="n">
         <f aca="false">(A39-B39)*(I_Cout_ss*$Q$2+C39)</f>
-        <v>443.786982248521</v>
+        <v>576.923076923077</v>
       </c>
       <c r="Q39" s="279" t="n">
         <f aca="false">(A39-B39)*(I_Cout_ss*$R$2+C39)</f>
-        <v>83.2100591715976</v>
+        <v>108.173076923077</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37510,27 +37518,27 @@
       </c>
       <c r="F40" s="290" t="n">
         <f aca="false">I_Cout_ss+C40</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G40" s="292" t="n">
         <f aca="false">IF($F$2="YES", F40, E40)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H40" s="290" t="n">
         <f aca="false">G40-C40</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I40" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B40-B39)/H40</f>
-        <v>0.000312499999999998</v>
+        <v>0.000240384615384614</v>
       </c>
       <c r="J40" s="294" t="n">
         <f aca="false">J39+I40</f>
-        <v>0.009375</v>
+        <v>0.00721153846153847</v>
       </c>
       <c r="K40" s="287" t="n">
         <f aca="false">J40*1000</f>
-        <v>9.375</v>
+        <v>7.21153846153847</v>
       </c>
       <c r="L40" s="282" t="n">
         <f aca="false">H40/G40</f>
@@ -37546,15 +37554,15 @@
       </c>
       <c r="O40" s="279" t="n">
         <f aca="false">G40*(A40-B40)</f>
-        <v>218.934911242604</v>
+        <v>284.615384615385</v>
       </c>
       <c r="P40" s="279" t="n">
         <f aca="false">(A40-B40)*(I_Cout_ss*$Q$2+C40)</f>
-        <v>437.869822485207</v>
+        <v>569.230769230769</v>
       </c>
       <c r="Q40" s="279" t="n">
         <f aca="false">(A40-B40)*(I_Cout_ss*$R$2+C40)</f>
-        <v>82.1005917159764</v>
+        <v>106.730769230769</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37580,27 +37588,27 @@
       </c>
       <c r="F41" s="290" t="n">
         <f aca="false">I_Cout_ss+C41</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G41" s="292" t="n">
         <f aca="false">IF($F$2="YES", F41, E41)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H41" s="290" t="n">
         <f aca="false">G41-C41</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I41" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B41-B40)/H41</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J41" s="294" t="n">
         <f aca="false">J40+I41</f>
-        <v>0.0096875</v>
+        <v>0.00745192307692308</v>
       </c>
       <c r="K41" s="287" t="n">
         <f aca="false">J41*1000</f>
-        <v>9.6875</v>
+        <v>7.45192307692308</v>
       </c>
       <c r="L41" s="282" t="n">
         <f aca="false">H41/G41</f>
@@ -37616,15 +37624,15 @@
       </c>
       <c r="O41" s="279" t="n">
         <f aca="false">G41*(A41-B41)</f>
-        <v>215.976331360947</v>
+        <v>280.769230769231</v>
       </c>
       <c r="P41" s="279" t="n">
         <f aca="false">(A41-B41)*(I_Cout_ss*$Q$2+C41)</f>
-        <v>431.952662721894</v>
+        <v>561.538461538462</v>
       </c>
       <c r="Q41" s="279" t="n">
         <f aca="false">(A41-B41)*(I_Cout_ss*$R$2+C41)</f>
-        <v>80.991124260355</v>
+        <v>105.288461538462</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37650,27 +37658,27 @@
       </c>
       <c r="F42" s="290" t="n">
         <f aca="false">I_Cout_ss+C42</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G42" s="292" t="n">
         <f aca="false">IF($F$2="YES", F42, E42)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H42" s="290" t="n">
         <f aca="false">G42-C42</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I42" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B42-B41)/H42</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J42" s="294" t="n">
         <f aca="false">J41+I42</f>
-        <v>0.01</v>
+        <v>0.0076923076923077</v>
       </c>
       <c r="K42" s="287" t="n">
         <f aca="false">J42*1000</f>
-        <v>10</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="L42" s="282" t="n">
         <f aca="false">H42/G42</f>
@@ -37686,15 +37694,15 @@
       </c>
       <c r="O42" s="279" t="n">
         <f aca="false">G42*(A42-B42)</f>
-        <v>213.01775147929</v>
+        <v>276.923076923077</v>
       </c>
       <c r="P42" s="279" t="n">
         <f aca="false">(A42-B42)*(I_Cout_ss*$Q$2+C42)</f>
-        <v>426.03550295858</v>
+        <v>553.846153846154</v>
       </c>
       <c r="Q42" s="279" t="n">
         <f aca="false">(A42-B42)*(I_Cout_ss*$R$2+C42)</f>
-        <v>79.8816568047337</v>
+        <v>103.846153846154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37720,27 +37728,27 @@
       </c>
       <c r="F43" s="290" t="n">
         <f aca="false">I_Cout_ss+C43</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G43" s="292" t="n">
         <f aca="false">IF($F$2="YES", F43, E43)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H43" s="290" t="n">
         <f aca="false">G43-C43</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I43" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B43-B42)/H43</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J43" s="294" t="n">
         <f aca="false">J42+I43</f>
-        <v>0.0103125</v>
+        <v>0.00793269230769231</v>
       </c>
       <c r="K43" s="287" t="n">
         <f aca="false">J43*1000</f>
-        <v>10.3125</v>
+        <v>7.93269230769231</v>
       </c>
       <c r="L43" s="282" t="n">
         <f aca="false">H43/G43</f>
@@ -37756,15 +37764,15 @@
       </c>
       <c r="O43" s="279" t="n">
         <f aca="false">G43*(A43-B43)</f>
-        <v>210.059171597633</v>
+        <v>273.076923076923</v>
       </c>
       <c r="P43" s="279" t="n">
         <f aca="false">(A43-B43)*(I_Cout_ss*$Q$2+C43)</f>
-        <v>420.118343195266</v>
+        <v>546.153846153846</v>
       </c>
       <c r="Q43" s="279" t="n">
         <f aca="false">(A43-B43)*(I_Cout_ss*$R$2+C43)</f>
-        <v>78.7721893491124</v>
+        <v>102.403846153846</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37790,27 +37798,27 @@
       </c>
       <c r="F44" s="290" t="n">
         <f aca="false">I_Cout_ss+C44</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G44" s="292" t="n">
         <f aca="false">IF($F$2="YES", F44, E44)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H44" s="290" t="n">
         <f aca="false">G44-C44</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I44" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B44-B43)/H44</f>
-        <v>0.000312500000000001</v>
+        <v>0.000240384615384616</v>
       </c>
       <c r="J44" s="294" t="n">
         <f aca="false">J43+I44</f>
-        <v>0.010625</v>
+        <v>0.00817307692307693</v>
       </c>
       <c r="K44" s="287" t="n">
         <f aca="false">J44*1000</f>
-        <v>10.625</v>
+        <v>8.17307692307693</v>
       </c>
       <c r="L44" s="282" t="n">
         <f aca="false">H44/G44</f>
@@ -37826,15 +37834,15 @@
       </c>
       <c r="O44" s="279" t="n">
         <f aca="false">G44*(A44-B44)</f>
-        <v>207.100591715976</v>
+        <v>269.230769230769</v>
       </c>
       <c r="P44" s="279" t="n">
         <f aca="false">(A44-B44)*(I_Cout_ss*$Q$2+C44)</f>
-        <v>414.201183431953</v>
+        <v>538.461538461538</v>
       </c>
       <c r="Q44" s="279" t="n">
         <f aca="false">(A44-B44)*(I_Cout_ss*$R$2+C44)</f>
-        <v>77.6627218934911</v>
+        <v>100.961538461538</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37860,27 +37868,27 @@
       </c>
       <c r="F45" s="290" t="n">
         <f aca="false">I_Cout_ss+C45</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G45" s="292" t="n">
         <f aca="false">IF($F$2="YES", F45, E45)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H45" s="290" t="n">
         <f aca="false">G45-C45</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I45" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B45-B44)/H45</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J45" s="294" t="n">
         <f aca="false">J44+I45</f>
-        <v>0.0109375</v>
+        <v>0.00841346153846154</v>
       </c>
       <c r="K45" s="287" t="n">
         <f aca="false">J45*1000</f>
-        <v>10.9375</v>
+        <v>8.41346153846154</v>
       </c>
       <c r="L45" s="282" t="n">
         <f aca="false">H45/G45</f>
@@ -37896,15 +37904,15 @@
       </c>
       <c r="O45" s="279" t="n">
         <f aca="false">G45*(A45-B45)</f>
-        <v>204.14201183432</v>
+        <v>265.384615384615</v>
       </c>
       <c r="P45" s="279" t="n">
         <f aca="false">(A45-B45)*(I_Cout_ss*$Q$2+C45)</f>
-        <v>408.284023668639</v>
+        <v>530.769230769231</v>
       </c>
       <c r="Q45" s="279" t="n">
         <f aca="false">(A45-B45)*(I_Cout_ss*$R$2+C45)</f>
-        <v>76.5532544378698</v>
+        <v>99.5192307692308</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37930,27 +37938,27 @@
       </c>
       <c r="F46" s="290" t="n">
         <f aca="false">I_Cout_ss+C46</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G46" s="292" t="n">
         <f aca="false">IF($F$2="YES", F46, E46)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H46" s="290" t="n">
         <f aca="false">G46-C46</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I46" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B46-B45)/H46</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J46" s="294" t="n">
         <f aca="false">J45+I46</f>
-        <v>0.01125</v>
+        <v>0.00865384615384616</v>
       </c>
       <c r="K46" s="287" t="n">
         <f aca="false">J46*1000</f>
-        <v>11.25</v>
+        <v>8.65384615384616</v>
       </c>
       <c r="L46" s="282" t="n">
         <f aca="false">H46/G46</f>
@@ -37966,15 +37974,15 @@
       </c>
       <c r="O46" s="279" t="n">
         <f aca="false">G46*(A46-B46)</f>
-        <v>201.183431952663</v>
+        <v>261.538461538462</v>
       </c>
       <c r="P46" s="279" t="n">
         <f aca="false">(A46-B46)*(I_Cout_ss*$Q$2+C46)</f>
-        <v>402.366863905325</v>
+        <v>523.076923076923</v>
       </c>
       <c r="Q46" s="279" t="n">
         <f aca="false">(A46-B46)*(I_Cout_ss*$R$2+C46)</f>
-        <v>75.4437869822485</v>
+        <v>98.0769230769231</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38000,27 +38008,27 @@
       </c>
       <c r="F47" s="290" t="n">
         <f aca="false">I_Cout_ss+C47</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G47" s="292" t="n">
         <f aca="false">IF($F$2="YES", F47, E47)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H47" s="290" t="n">
         <f aca="false">G47-C47</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I47" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B47-B46)/H47</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J47" s="294" t="n">
         <f aca="false">J46+I47</f>
-        <v>0.0115625</v>
+        <v>0.00889423076923077</v>
       </c>
       <c r="K47" s="287" t="n">
         <f aca="false">J47*1000</f>
-        <v>11.5625</v>
+        <v>8.89423076923077</v>
       </c>
       <c r="L47" s="282" t="n">
         <f aca="false">H47/G47</f>
@@ -38036,15 +38044,15 @@
       </c>
       <c r="O47" s="279" t="n">
         <f aca="false">G47*(A47-B47)</f>
-        <v>198.224852071006</v>
+        <v>257.692307692308</v>
       </c>
       <c r="P47" s="279" t="n">
         <f aca="false">(A47-B47)*(I_Cout_ss*$Q$2+C47)</f>
-        <v>396.449704142012</v>
+        <v>515.384615384615</v>
       </c>
       <c r="Q47" s="279" t="n">
         <f aca="false">(A47-B47)*(I_Cout_ss*$R$2+C47)</f>
-        <v>74.3343195266272</v>
+        <v>96.6346153846154</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38070,27 +38078,27 @@
       </c>
       <c r="F48" s="290" t="n">
         <f aca="false">I_Cout_ss+C48</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G48" s="292" t="n">
         <f aca="false">IF($F$2="YES", F48, E48)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H48" s="290" t="n">
         <f aca="false">G48-C48</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I48" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B48-B47)/H48</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J48" s="294" t="n">
         <f aca="false">J47+I48</f>
-        <v>0.011875</v>
+        <v>0.00913461538461539</v>
       </c>
       <c r="K48" s="287" t="n">
         <f aca="false">J48*1000</f>
-        <v>11.875</v>
+        <v>9.13461538461539</v>
       </c>
       <c r="L48" s="282" t="n">
         <f aca="false">H48/G48</f>
@@ -38106,15 +38114,15 @@
       </c>
       <c r="O48" s="279" t="n">
         <f aca="false">G48*(A48-B48)</f>
-        <v>195.266272189349</v>
+        <v>253.846153846154</v>
       </c>
       <c r="P48" s="279" t="n">
         <f aca="false">(A48-B48)*(I_Cout_ss*$Q$2+C48)</f>
-        <v>390.532544378698</v>
+        <v>507.692307692308</v>
       </c>
       <c r="Q48" s="279" t="n">
         <f aca="false">(A48-B48)*(I_Cout_ss*$R$2+C48)</f>
-        <v>73.2248520710059</v>
+        <v>95.1923076923077</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38140,27 +38148,27 @@
       </c>
       <c r="F49" s="290" t="n">
         <f aca="false">I_Cout_ss+C49</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G49" s="292" t="n">
         <f aca="false">IF($F$2="YES", F49, E49)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H49" s="290" t="n">
         <f aca="false">G49-C49</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I49" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B49-B48)/H49</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J49" s="294" t="n">
         <f aca="false">J48+I49</f>
-        <v>0.0121875</v>
+        <v>0.009375</v>
       </c>
       <c r="K49" s="287" t="n">
         <f aca="false">J49*1000</f>
-        <v>12.1875</v>
+        <v>9.375</v>
       </c>
       <c r="L49" s="282" t="n">
         <f aca="false">H49/G49</f>
@@ -38176,15 +38184,15 @@
       </c>
       <c r="O49" s="279" t="n">
         <f aca="false">G49*(A49-B49)</f>
-        <v>192.307692307692</v>
+        <v>250</v>
       </c>
       <c r="P49" s="279" t="n">
         <f aca="false">(A49-B49)*(I_Cout_ss*$Q$2+C49)</f>
-        <v>384.615384615385</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="279" t="n">
         <f aca="false">(A49-B49)*(I_Cout_ss*$R$2+C49)</f>
-        <v>72.1153846153846</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38210,27 +38218,27 @@
       </c>
       <c r="F50" s="290" t="n">
         <f aca="false">I_Cout_ss+C50</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G50" s="292" t="n">
         <f aca="false">IF($F$2="YES", F50, E50)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H50" s="290" t="n">
         <f aca="false">G50-C50</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I50" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B50-B49)/H50</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J50" s="294" t="n">
         <f aca="false">J49+I50</f>
-        <v>0.0125</v>
+        <v>0.00961538461538462</v>
       </c>
       <c r="K50" s="287" t="n">
         <f aca="false">J50*1000</f>
-        <v>12.5</v>
+        <v>9.61538461538462</v>
       </c>
       <c r="L50" s="282" t="n">
         <f aca="false">H50/G50</f>
@@ -38246,15 +38254,15 @@
       </c>
       <c r="O50" s="279" t="n">
         <f aca="false">G50*(A50-B50)</f>
-        <v>189.349112426036</v>
+        <v>246.153846153846</v>
       </c>
       <c r="P50" s="279" t="n">
         <f aca="false">(A50-B50)*(I_Cout_ss*$Q$2+C50)</f>
-        <v>378.698224852071</v>
+        <v>492.307692307692</v>
       </c>
       <c r="Q50" s="279" t="n">
         <f aca="false">(A50-B50)*(I_Cout_ss*$R$2+C50)</f>
-        <v>71.0059171597633</v>
+        <v>92.3076923076923</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38280,27 +38288,27 @@
       </c>
       <c r="F51" s="290" t="n">
         <f aca="false">I_Cout_ss+C51</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G51" s="292" t="n">
         <f aca="false">IF($F$2="YES", F51, E51)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H51" s="290" t="n">
         <f aca="false">G51-C51</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I51" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B51-B50)/H51</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J51" s="294" t="n">
         <f aca="false">J50+I51</f>
-        <v>0.0128125</v>
+        <v>0.00985576923076923</v>
       </c>
       <c r="K51" s="287" t="n">
         <f aca="false">J51*1000</f>
-        <v>12.8125</v>
+        <v>9.85576923076923</v>
       </c>
       <c r="L51" s="282" t="n">
         <f aca="false">H51/G51</f>
@@ -38316,15 +38324,15 @@
       </c>
       <c r="O51" s="279" t="n">
         <f aca="false">G51*(A51-B51)</f>
-        <v>186.390532544379</v>
+        <v>242.307692307692</v>
       </c>
       <c r="P51" s="279" t="n">
         <f aca="false">(A51-B51)*(I_Cout_ss*$Q$2+C51)</f>
-        <v>372.781065088757</v>
+        <v>484.615384615385</v>
       </c>
       <c r="Q51" s="279" t="n">
         <f aca="false">(A51-B51)*(I_Cout_ss*$R$2+C51)</f>
-        <v>69.896449704142</v>
+        <v>90.8653846153846</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38350,27 +38358,27 @@
       </c>
       <c r="F52" s="290" t="n">
         <f aca="false">I_Cout_ss+C52</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G52" s="292" t="n">
         <f aca="false">IF($F$2="YES", F52, E52)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H52" s="290" t="n">
         <f aca="false">G52-C52</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I52" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B52-B51)/H52</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J52" s="294" t="n">
         <f aca="false">J51+I52</f>
-        <v>0.013125</v>
+        <v>0.0100961538461538</v>
       </c>
       <c r="K52" s="287" t="n">
         <f aca="false">J52*1000</f>
-        <v>13.125</v>
+        <v>10.0961538461538</v>
       </c>
       <c r="L52" s="282" t="n">
         <f aca="false">H52/G52</f>
@@ -38386,15 +38394,15 @@
       </c>
       <c r="O52" s="279" t="n">
         <f aca="false">G52*(A52-B52)</f>
-        <v>183.431952662722</v>
+        <v>238.461538461538</v>
       </c>
       <c r="P52" s="279" t="n">
         <f aca="false">(A52-B52)*(I_Cout_ss*$Q$2+C52)</f>
-        <v>366.863905325444</v>
+        <v>476.923076923077</v>
       </c>
       <c r="Q52" s="279" t="n">
         <f aca="false">(A52-B52)*(I_Cout_ss*$R$2+C52)</f>
-        <v>68.7869822485207</v>
+        <v>89.4230769230769</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38420,27 +38428,27 @@
       </c>
       <c r="F53" s="290" t="n">
         <f aca="false">I_Cout_ss+C53</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G53" s="292" t="n">
         <f aca="false">IF($F$2="YES", F53, E53)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H53" s="290" t="n">
         <f aca="false">G53-C53</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I53" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B53-B52)/H53</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J53" s="294" t="n">
         <f aca="false">J52+I53</f>
-        <v>0.0134375</v>
+        <v>0.0103365384615385</v>
       </c>
       <c r="K53" s="287" t="n">
         <f aca="false">J53*1000</f>
-        <v>13.4375</v>
+        <v>10.3365384615385</v>
       </c>
       <c r="L53" s="282" t="n">
         <f aca="false">H53/G53</f>
@@ -38456,15 +38464,15 @@
       </c>
       <c r="O53" s="279" t="n">
         <f aca="false">G53*(A53-B53)</f>
-        <v>180.473372781065</v>
+        <v>234.615384615385</v>
       </c>
       <c r="P53" s="279" t="n">
         <f aca="false">(A53-B53)*(I_Cout_ss*$Q$2+C53)</f>
-        <v>360.94674556213</v>
+        <v>469.230769230769</v>
       </c>
       <c r="Q53" s="279" t="n">
         <f aca="false">(A53-B53)*(I_Cout_ss*$R$2+C53)</f>
-        <v>67.6775147928994</v>
+        <v>87.9807692307692</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38490,27 +38498,27 @@
       </c>
       <c r="F54" s="290" t="n">
         <f aca="false">I_Cout_ss+C54</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G54" s="292" t="n">
         <f aca="false">IF($F$2="YES", F54, E54)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H54" s="290" t="n">
         <f aca="false">G54-C54</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I54" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B54-B53)/H54</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J54" s="294" t="n">
         <f aca="false">J53+I54</f>
-        <v>0.01375</v>
+        <v>0.0105769230769231</v>
       </c>
       <c r="K54" s="287" t="n">
         <f aca="false">J54*1000</f>
-        <v>13.75</v>
+        <v>10.5769230769231</v>
       </c>
       <c r="L54" s="282" t="n">
         <f aca="false">H54/G54</f>
@@ -38526,15 +38534,15 @@
       </c>
       <c r="O54" s="279" t="n">
         <f aca="false">G54*(A54-B54)</f>
-        <v>177.514792899408</v>
+        <v>230.769230769231</v>
       </c>
       <c r="P54" s="279" t="n">
         <f aca="false">(A54-B54)*(I_Cout_ss*$Q$2+C54)</f>
-        <v>355.029585798817</v>
+        <v>461.538461538462</v>
       </c>
       <c r="Q54" s="279" t="n">
         <f aca="false">(A54-B54)*(I_Cout_ss*$R$2+C54)</f>
-        <v>66.5680473372781</v>
+        <v>86.5384615384616</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38560,27 +38568,27 @@
       </c>
       <c r="F55" s="290" t="n">
         <f aca="false">I_Cout_ss+C55</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G55" s="292" t="n">
         <f aca="false">IF($F$2="YES", F55, E55)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H55" s="290" t="n">
         <f aca="false">G55-C55</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I55" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B55-B54)/H55</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J55" s="294" t="n">
         <f aca="false">J54+I55</f>
-        <v>0.0140625</v>
+        <v>0.0108173076923077</v>
       </c>
       <c r="K55" s="287" t="n">
         <f aca="false">J55*1000</f>
-        <v>14.0625</v>
+        <v>10.8173076923077</v>
       </c>
       <c r="L55" s="282" t="n">
         <f aca="false">H55/G55</f>
@@ -38596,15 +38604,15 @@
       </c>
       <c r="O55" s="279" t="n">
         <f aca="false">G55*(A55-B55)</f>
-        <v>174.556213017751</v>
+        <v>226.923076923077</v>
       </c>
       <c r="P55" s="279" t="n">
         <f aca="false">(A55-B55)*(I_Cout_ss*$Q$2+C55)</f>
-        <v>349.112426035503</v>
+        <v>453.846153846154</v>
       </c>
       <c r="Q55" s="279" t="n">
         <f aca="false">(A55-B55)*(I_Cout_ss*$R$2+C55)</f>
-        <v>65.4585798816568</v>
+        <v>85.0961538461538</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38630,27 +38638,27 @@
       </c>
       <c r="F56" s="290" t="n">
         <f aca="false">I_Cout_ss+C56</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G56" s="292" t="n">
         <f aca="false">IF($F$2="YES", F56, E56)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H56" s="290" t="n">
         <f aca="false">G56-C56</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I56" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B56-B55)/H56</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J56" s="294" t="n">
         <f aca="false">J55+I56</f>
-        <v>0.014375</v>
+        <v>0.0110576923076923</v>
       </c>
       <c r="K56" s="287" t="n">
         <f aca="false">J56*1000</f>
-        <v>14.375</v>
+        <v>11.0576923076923</v>
       </c>
       <c r="L56" s="282" t="n">
         <f aca="false">H56/G56</f>
@@ -38666,15 +38674,15 @@
       </c>
       <c r="O56" s="279" t="n">
         <f aca="false">G56*(A56-B56)</f>
-        <v>171.597633136095</v>
+        <v>223.076923076923</v>
       </c>
       <c r="P56" s="279" t="n">
         <f aca="false">(A56-B56)*(I_Cout_ss*$Q$2+C56)</f>
-        <v>343.195266272189</v>
+        <v>446.153846153846</v>
       </c>
       <c r="Q56" s="279" t="n">
         <f aca="false">(A56-B56)*(I_Cout_ss*$R$2+C56)</f>
-        <v>64.3491124260355</v>
+        <v>83.6538461538462</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38700,27 +38708,27 @@
       </c>
       <c r="F57" s="290" t="n">
         <f aca="false">I_Cout_ss+C57</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G57" s="292" t="n">
         <f aca="false">IF($F$2="YES", F57, E57)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H57" s="290" t="n">
         <f aca="false">G57-C57</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I57" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B57-B56)/H57</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J57" s="294" t="n">
         <f aca="false">J56+I57</f>
-        <v>0.0146875</v>
+        <v>0.0112980769230769</v>
       </c>
       <c r="K57" s="287" t="n">
         <f aca="false">J57*1000</f>
-        <v>14.6875</v>
+        <v>11.2980769230769</v>
       </c>
       <c r="L57" s="282" t="n">
         <f aca="false">H57/G57</f>
@@ -38736,15 +38744,15 @@
       </c>
       <c r="O57" s="279" t="n">
         <f aca="false">G57*(A57-B57)</f>
-        <v>168.639053254438</v>
+        <v>219.230769230769</v>
       </c>
       <c r="P57" s="279" t="n">
         <f aca="false">(A57-B57)*(I_Cout_ss*$Q$2+C57)</f>
-        <v>337.278106508876</v>
+        <v>438.461538461538</v>
       </c>
       <c r="Q57" s="279" t="n">
         <f aca="false">(A57-B57)*(I_Cout_ss*$R$2+C57)</f>
-        <v>63.2396449704142</v>
+        <v>82.2115384615385</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38770,27 +38778,27 @@
       </c>
       <c r="F58" s="290" t="n">
         <f aca="false">I_Cout_ss+C58</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G58" s="292" t="n">
         <f aca="false">IF($F$2="YES", F58, E58)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H58" s="290" t="n">
         <f aca="false">G58-C58</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I58" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B58-B57)/H58</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J58" s="294" t="n">
         <f aca="false">J57+I58</f>
-        <v>0.015</v>
+        <v>0.0115384615384615</v>
       </c>
       <c r="K58" s="287" t="n">
         <f aca="false">J58*1000</f>
-        <v>15</v>
+        <v>11.5384615384615</v>
       </c>
       <c r="L58" s="282" t="n">
         <f aca="false">H58/G58</f>
@@ -38806,15 +38814,15 @@
       </c>
       <c r="O58" s="279" t="n">
         <f aca="false">G58*(A58-B58)</f>
-        <v>165.680473372781</v>
+        <v>215.384615384615</v>
       </c>
       <c r="P58" s="279" t="n">
         <f aca="false">(A58-B58)*(I_Cout_ss*$Q$2+C58)</f>
-        <v>331.360946745562</v>
+        <v>430.769230769231</v>
       </c>
       <c r="Q58" s="279" t="n">
         <f aca="false">(A58-B58)*(I_Cout_ss*$R$2+C58)</f>
-        <v>62.1301775147929</v>
+        <v>80.7692307692308</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38840,27 +38848,27 @@
       </c>
       <c r="F59" s="290" t="n">
         <f aca="false">I_Cout_ss+C59</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G59" s="292" t="n">
         <f aca="false">IF($F$2="YES", F59, E59)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H59" s="290" t="n">
         <f aca="false">G59-C59</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I59" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B59-B58)/H59</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J59" s="294" t="n">
         <f aca="false">J58+I59</f>
-        <v>0.0153125</v>
+        <v>0.0117788461538462</v>
       </c>
       <c r="K59" s="287" t="n">
         <f aca="false">J59*1000</f>
-        <v>15.3125</v>
+        <v>11.7788461538462</v>
       </c>
       <c r="L59" s="282" t="n">
         <f aca="false">H59/G59</f>
@@ -38876,15 +38884,15 @@
       </c>
       <c r="O59" s="279" t="n">
         <f aca="false">G59*(A59-B59)</f>
-        <v>162.721893491124</v>
+        <v>211.538461538462</v>
       </c>
       <c r="P59" s="279" t="n">
         <f aca="false">(A59-B59)*(I_Cout_ss*$Q$2+C59)</f>
-        <v>325.443786982249</v>
+        <v>423.076923076923</v>
       </c>
       <c r="Q59" s="279" t="n">
         <f aca="false">(A59-B59)*(I_Cout_ss*$R$2+C59)</f>
-        <v>61.0207100591716</v>
+        <v>79.3269230769231</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38910,27 +38918,27 @@
       </c>
       <c r="F60" s="290" t="n">
         <f aca="false">I_Cout_ss+C60</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G60" s="292" t="n">
         <f aca="false">IF($F$2="YES", F60, E60)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H60" s="290" t="n">
         <f aca="false">G60-C60</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I60" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B60-B59)/H60</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J60" s="294" t="n">
         <f aca="false">J59+I60</f>
-        <v>0.015625</v>
+        <v>0.0120192307692308</v>
       </c>
       <c r="K60" s="287" t="n">
         <f aca="false">J60*1000</f>
-        <v>15.625</v>
+        <v>12.0192307692308</v>
       </c>
       <c r="L60" s="282" t="n">
         <f aca="false">H60/G60</f>
@@ -38946,15 +38954,15 @@
       </c>
       <c r="O60" s="279" t="n">
         <f aca="false">G60*(A60-B60)</f>
-        <v>159.763313609467</v>
+        <v>207.692307692308</v>
       </c>
       <c r="P60" s="279" t="n">
         <f aca="false">(A60-B60)*(I_Cout_ss*$Q$2+C60)</f>
-        <v>319.526627218935</v>
+        <v>415.384615384615</v>
       </c>
       <c r="Q60" s="279" t="n">
         <f aca="false">(A60-B60)*(I_Cout_ss*$R$2+C60)</f>
-        <v>59.9112426035503</v>
+        <v>77.8846153846154</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38980,27 +38988,27 @@
       </c>
       <c r="F61" s="290" t="n">
         <f aca="false">I_Cout_ss+C61</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G61" s="292" t="n">
         <f aca="false">IF($F$2="YES", F61, E61)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H61" s="290" t="n">
         <f aca="false">G61-C61</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I61" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B61-B60)/H61</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J61" s="294" t="n">
         <f aca="false">J60+I61</f>
-        <v>0.0159375</v>
+        <v>0.0122596153846154</v>
       </c>
       <c r="K61" s="287" t="n">
         <f aca="false">J61*1000</f>
-        <v>15.9375</v>
+        <v>12.2596153846154</v>
       </c>
       <c r="L61" s="282" t="n">
         <f aca="false">H61/G61</f>
@@ -39016,15 +39024,15 @@
       </c>
       <c r="O61" s="279" t="n">
         <f aca="false">G61*(A61-B61)</f>
-        <v>156.804733727811</v>
+        <v>203.846153846154</v>
       </c>
       <c r="P61" s="279" t="n">
         <f aca="false">(A61-B61)*(I_Cout_ss*$Q$2+C61)</f>
-        <v>313.609467455621</v>
+        <v>407.692307692308</v>
       </c>
       <c r="Q61" s="279" t="n">
         <f aca="false">(A61-B61)*(I_Cout_ss*$R$2+C61)</f>
-        <v>58.801775147929</v>
+        <v>76.4423076923077</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39050,27 +39058,27 @@
       </c>
       <c r="F62" s="290" t="n">
         <f aca="false">I_Cout_ss+C62</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G62" s="292" t="n">
         <f aca="false">IF($F$2="YES", F62, E62)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H62" s="290" t="n">
         <f aca="false">G62-C62</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I62" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B62-B61)/H62</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J62" s="294" t="n">
         <f aca="false">J61+I62</f>
-        <v>0.01625</v>
+        <v>0.0125</v>
       </c>
       <c r="K62" s="287" t="n">
         <f aca="false">J62*1000</f>
-        <v>16.25</v>
+        <v>12.5</v>
       </c>
       <c r="L62" s="282" t="n">
         <f aca="false">H62/G62</f>
@@ -39082,19 +39090,19 @@
       </c>
       <c r="N62" s="279" t="n">
         <f aca="false">I62*G62*(A62-B62)</f>
-        <v>0.0480769230769233</v>
+        <v>0.0480769230769234</v>
       </c>
       <c r="O62" s="279" t="n">
         <f aca="false">G62*(A62-B62)</f>
-        <v>153.846153846154</v>
+        <v>200</v>
       </c>
       <c r="P62" s="279" t="n">
         <f aca="false">(A62-B62)*(I_Cout_ss*$Q$2+C62)</f>
-        <v>307.692307692308</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="279" t="n">
         <f aca="false">(A62-B62)*(I_Cout_ss*$R$2+C62)</f>
-        <v>57.6923076923077</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39120,27 +39128,27 @@
       </c>
       <c r="F63" s="290" t="n">
         <f aca="false">I_Cout_ss+C63</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G63" s="292" t="n">
         <f aca="false">IF($F$2="YES", F63, E63)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H63" s="290" t="n">
         <f aca="false">G63-C63</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I63" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B63-B62)/H63</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J63" s="294" t="n">
         <f aca="false">J62+I63</f>
-        <v>0.0165625</v>
+        <v>0.0127403846153846</v>
       </c>
       <c r="K63" s="287" t="n">
         <f aca="false">J63*1000</f>
-        <v>16.5625</v>
+        <v>12.7403846153846</v>
       </c>
       <c r="L63" s="282" t="n">
         <f aca="false">H63/G63</f>
@@ -39156,15 +39164,15 @@
       </c>
       <c r="O63" s="279" t="n">
         <f aca="false">G63*(A63-B63)</f>
-        <v>150.887573964497</v>
+        <v>196.153846153846</v>
       </c>
       <c r="P63" s="279" t="n">
         <f aca="false">(A63-B63)*(I_Cout_ss*$Q$2+C63)</f>
-        <v>301.775147928994</v>
+        <v>392.307692307692</v>
       </c>
       <c r="Q63" s="279" t="n">
         <f aca="false">(A63-B63)*(I_Cout_ss*$R$2+C63)</f>
-        <v>56.5828402366864</v>
+        <v>73.5576923076923</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39190,27 +39198,27 @@
       </c>
       <c r="F64" s="290" t="n">
         <f aca="false">I_Cout_ss+C64</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G64" s="292" t="n">
         <f aca="false">IF($F$2="YES", F64, E64)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H64" s="290" t="n">
         <f aca="false">G64-C64</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I64" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B64-B63)/H64</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J64" s="294" t="n">
         <f aca="false">J63+I64</f>
-        <v>0.016875</v>
+        <v>0.0129807692307692</v>
       </c>
       <c r="K64" s="287" t="n">
         <f aca="false">J64*1000</f>
-        <v>16.875</v>
+        <v>12.9807692307692</v>
       </c>
       <c r="L64" s="282" t="n">
         <f aca="false">H64/G64</f>
@@ -39226,15 +39234,15 @@
       </c>
       <c r="O64" s="279" t="n">
         <f aca="false">G64*(A64-B64)</f>
-        <v>147.92899408284</v>
+        <v>192.307692307692</v>
       </c>
       <c r="P64" s="279" t="n">
         <f aca="false">(A64-B64)*(I_Cout_ss*$Q$2+C64)</f>
-        <v>295.85798816568</v>
+        <v>384.615384615385</v>
       </c>
       <c r="Q64" s="279" t="n">
         <f aca="false">(A64-B64)*(I_Cout_ss*$R$2+C64)</f>
-        <v>55.4733727810651</v>
+        <v>72.1153846153846</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39260,27 +39268,27 @@
       </c>
       <c r="F65" s="290" t="n">
         <f aca="false">I_Cout_ss+C65</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G65" s="292" t="n">
         <f aca="false">IF($F$2="YES", F65, E65)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H65" s="290" t="n">
         <f aca="false">G65-C65</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I65" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B65-B64)/H65</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J65" s="294" t="n">
         <f aca="false">J64+I65</f>
-        <v>0.0171875</v>
+        <v>0.0132211538461538</v>
       </c>
       <c r="K65" s="287" t="n">
         <f aca="false">J65*1000</f>
-        <v>17.1875</v>
+        <v>13.2211538461538</v>
       </c>
       <c r="L65" s="282" t="n">
         <f aca="false">H65/G65</f>
@@ -39296,15 +39304,15 @@
       </c>
       <c r="O65" s="279" t="n">
         <f aca="false">G65*(A65-B65)</f>
-        <v>144.970414201183</v>
+        <v>188.461538461538</v>
       </c>
       <c r="P65" s="279" t="n">
         <f aca="false">(A65-B65)*(I_Cout_ss*$Q$2+C65)</f>
-        <v>289.940828402367</v>
+        <v>376.923076923077</v>
       </c>
       <c r="Q65" s="279" t="n">
         <f aca="false">(A65-B65)*(I_Cout_ss*$R$2+C65)</f>
-        <v>54.3639053254438</v>
+        <v>70.6730769230769</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39330,27 +39338,27 @@
       </c>
       <c r="F66" s="290" t="n">
         <f aca="false">I_Cout_ss+C66</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G66" s="292" t="n">
         <f aca="false">IF($F$2="YES", F66, E66)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H66" s="290" t="n">
         <f aca="false">G66-C66</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I66" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B66-B65)/H66</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J66" s="294" t="n">
         <f aca="false">J65+I66</f>
-        <v>0.0175</v>
+        <v>0.0134615384615385</v>
       </c>
       <c r="K66" s="287" t="n">
         <f aca="false">J66*1000</f>
-        <v>17.5</v>
+        <v>13.4615384615385</v>
       </c>
       <c r="L66" s="282" t="n">
         <f aca="false">H66/G66</f>
@@ -39366,15 +39374,15 @@
       </c>
       <c r="O66" s="279" t="n">
         <f aca="false">G66*(A66-B66)</f>
-        <v>142.011834319527</v>
+        <v>184.615384615385</v>
       </c>
       <c r="P66" s="279" t="n">
         <f aca="false">(A66-B66)*(I_Cout_ss*$Q$2+C66)</f>
-        <v>284.023668639053</v>
+        <v>369.230769230769</v>
       </c>
       <c r="Q66" s="279" t="n">
         <f aca="false">(A66-B66)*(I_Cout_ss*$R$2+C66)</f>
-        <v>53.2544378698225</v>
+        <v>69.2307692307692</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39400,27 +39408,27 @@
       </c>
       <c r="F67" s="290" t="n">
         <f aca="false">I_Cout_ss+C67</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G67" s="292" t="n">
         <f aca="false">IF($F$2="YES", F67, E67)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H67" s="290" t="n">
         <f aca="false">G67-C67</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I67" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B67-B66)/H67</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J67" s="294" t="n">
         <f aca="false">J66+I67</f>
-        <v>0.0178125</v>
+        <v>0.0137019230769231</v>
       </c>
       <c r="K67" s="287" t="n">
         <f aca="false">J67*1000</f>
-        <v>17.8125</v>
+        <v>13.7019230769231</v>
       </c>
       <c r="L67" s="282" t="n">
         <f aca="false">H67/G67</f>
@@ -39436,15 +39444,15 @@
       </c>
       <c r="O67" s="279" t="n">
         <f aca="false">G67*(A67-B67)</f>
-        <v>139.05325443787</v>
+        <v>180.769230769231</v>
       </c>
       <c r="P67" s="279" t="n">
         <f aca="false">(A67-B67)*(I_Cout_ss*$Q$2+C67)</f>
-        <v>278.10650887574</v>
+        <v>361.538461538461</v>
       </c>
       <c r="Q67" s="279" t="n">
         <f aca="false">(A67-B67)*(I_Cout_ss*$R$2+C67)</f>
-        <v>52.1449704142012</v>
+        <v>67.7884615384615</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39470,27 +39478,27 @@
       </c>
       <c r="F68" s="290" t="n">
         <f aca="false">I_Cout_ss+C68</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G68" s="292" t="n">
         <f aca="false">IF($F$2="YES", F68, E68)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H68" s="290" t="n">
         <f aca="false">G68-C68</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I68" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B68-B67)/H68</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J68" s="294" t="n">
         <f aca="false">J67+I68</f>
-        <v>0.018125</v>
+        <v>0.0139423076923077</v>
       </c>
       <c r="K68" s="287" t="n">
         <f aca="false">J68*1000</f>
-        <v>18.125</v>
+        <v>13.9423076923077</v>
       </c>
       <c r="L68" s="282" t="n">
         <f aca="false">H68/G68</f>
@@ -39506,15 +39514,15 @@
       </c>
       <c r="O68" s="279" t="n">
         <f aca="false">G68*(A68-B68)</f>
-        <v>136.094674556213</v>
+        <v>176.923076923077</v>
       </c>
       <c r="P68" s="279" t="n">
         <f aca="false">(A68-B68)*(I_Cout_ss*$Q$2+C68)</f>
-        <v>272.189349112426</v>
+        <v>353.846153846154</v>
       </c>
       <c r="Q68" s="279" t="n">
         <f aca="false">(A68-B68)*(I_Cout_ss*$R$2+C68)</f>
-        <v>51.0355029585799</v>
+        <v>66.3461538461538</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39540,27 +39548,27 @@
       </c>
       <c r="F69" s="290" t="n">
         <f aca="false">I_Cout_ss+C69</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G69" s="292" t="n">
         <f aca="false">IF($F$2="YES", F69, E69)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H69" s="290" t="n">
         <f aca="false">G69-C69</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I69" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B69-B68)/H69</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J69" s="294" t="n">
         <f aca="false">J68+I69</f>
-        <v>0.0184375</v>
+        <v>0.0141826923076923</v>
       </c>
       <c r="K69" s="287" t="n">
         <f aca="false">J69*1000</f>
-        <v>18.4375</v>
+        <v>14.1826923076923</v>
       </c>
       <c r="L69" s="282" t="n">
         <f aca="false">H69/G69</f>
@@ -39576,15 +39584,15 @@
       </c>
       <c r="O69" s="279" t="n">
         <f aca="false">G69*(A69-B69)</f>
-        <v>133.136094674556</v>
+        <v>173.076923076923</v>
       </c>
       <c r="P69" s="279" t="n">
         <f aca="false">(A69-B69)*(I_Cout_ss*$Q$2+C69)</f>
-        <v>266.272189349112</v>
+        <v>346.153846153846</v>
       </c>
       <c r="Q69" s="279" t="n">
         <f aca="false">(A69-B69)*(I_Cout_ss*$R$2+C69)</f>
-        <v>49.9260355029586</v>
+        <v>64.9038461538462</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39610,27 +39618,27 @@
       </c>
       <c r="F70" s="290" t="n">
         <f aca="false">I_Cout_ss+C70</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G70" s="292" t="n">
         <f aca="false">IF($F$2="YES", F70, E70)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H70" s="290" t="n">
         <f aca="false">G70-C70</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I70" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B70-B69)/H70</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J70" s="294" t="n">
         <f aca="false">J69+I70</f>
-        <v>0.01875</v>
+        <v>0.0144230769230769</v>
       </c>
       <c r="K70" s="287" t="n">
         <f aca="false">J70*1000</f>
-        <v>18.75</v>
+        <v>14.4230769230769</v>
       </c>
       <c r="L70" s="282" t="n">
         <f aca="false">H70/G70</f>
@@ -39646,15 +39654,15 @@
       </c>
       <c r="O70" s="279" t="n">
         <f aca="false">G70*(A70-B70)</f>
-        <v>130.177514792899</v>
+        <v>169.230769230769</v>
       </c>
       <c r="P70" s="279" t="n">
         <f aca="false">(A70-B70)*(I_Cout_ss*$Q$2+C70)</f>
-        <v>260.355029585799</v>
+        <v>338.461538461538</v>
       </c>
       <c r="Q70" s="279" t="n">
         <f aca="false">(A70-B70)*(I_Cout_ss*$R$2+C70)</f>
-        <v>48.8165680473373</v>
+        <v>63.4615384615385</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39680,27 +39688,27 @@
       </c>
       <c r="F71" s="290" t="n">
         <f aca="false">I_Cout_ss+C71</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G71" s="292" t="n">
         <f aca="false">IF($F$2="YES", F71, E71)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H71" s="290" t="n">
         <f aca="false">G71-C71</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I71" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B71-B70)/H71</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J71" s="294" t="n">
         <f aca="false">J70+I71</f>
-        <v>0.0190625</v>
+        <v>0.0146634615384615</v>
       </c>
       <c r="K71" s="287" t="n">
         <f aca="false">J71*1000</f>
-        <v>19.0625</v>
+        <v>14.6634615384615</v>
       </c>
       <c r="L71" s="282" t="n">
         <f aca="false">H71/G71</f>
@@ -39716,15 +39724,15 @@
       </c>
       <c r="O71" s="279" t="n">
         <f aca="false">G71*(A71-B71)</f>
-        <v>127.218934911243</v>
+        <v>165.384615384615</v>
       </c>
       <c r="P71" s="279" t="n">
         <f aca="false">(A71-B71)*(I_Cout_ss*$Q$2+C71)</f>
-        <v>254.437869822485</v>
+        <v>330.769230769231</v>
       </c>
       <c r="Q71" s="279" t="n">
         <f aca="false">(A71-B71)*(I_Cout_ss*$R$2+C71)</f>
-        <v>47.707100591716</v>
+        <v>62.0192307692308</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39750,27 +39758,27 @@
       </c>
       <c r="F72" s="290" t="n">
         <f aca="false">I_Cout_ss+C72</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G72" s="292" t="n">
         <f aca="false">IF($F$2="YES", F72, E72)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H72" s="290" t="n">
         <f aca="false">G72-C72</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I72" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B72-B71)/H72</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J72" s="294" t="n">
         <f aca="false">J71+I72</f>
-        <v>0.019375</v>
+        <v>0.0149038461538461</v>
       </c>
       <c r="K72" s="287" t="n">
         <f aca="false">J72*1000</f>
-        <v>19.375</v>
+        <v>14.9038461538461</v>
       </c>
       <c r="L72" s="282" t="n">
         <f aca="false">H72/G72</f>
@@ -39786,15 +39794,15 @@
       </c>
       <c r="O72" s="279" t="n">
         <f aca="false">G72*(A72-B72)</f>
-        <v>124.260355029586</v>
+        <v>161.538461538462</v>
       </c>
       <c r="P72" s="279" t="n">
         <f aca="false">(A72-B72)*(I_Cout_ss*$Q$2+C72)</f>
-        <v>248.520710059172</v>
+        <v>323.076923076923</v>
       </c>
       <c r="Q72" s="279" t="n">
         <f aca="false">(A72-B72)*(I_Cout_ss*$R$2+C72)</f>
-        <v>46.5976331360947</v>
+        <v>60.5769230769231</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39820,27 +39828,27 @@
       </c>
       <c r="F73" s="290" t="n">
         <f aca="false">I_Cout_ss+C73</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G73" s="292" t="n">
         <f aca="false">IF($F$2="YES", F73, E73)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H73" s="290" t="n">
         <f aca="false">G73-C73</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I73" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B73-B72)/H73</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J73" s="294" t="n">
         <f aca="false">J72+I73</f>
-        <v>0.0196875</v>
+        <v>0.0151442307692308</v>
       </c>
       <c r="K73" s="287" t="n">
         <f aca="false">J73*1000</f>
-        <v>19.6875</v>
+        <v>15.1442307692308</v>
       </c>
       <c r="L73" s="282" t="n">
         <f aca="false">H73/G73</f>
@@ -39856,15 +39864,15 @@
       </c>
       <c r="O73" s="279" t="n">
         <f aca="false">G73*(A73-B73)</f>
-        <v>121.301775147929</v>
+        <v>157.692307692308</v>
       </c>
       <c r="P73" s="279" t="n">
         <f aca="false">(A73-B73)*(I_Cout_ss*$Q$2+C73)</f>
-        <v>242.603550295858</v>
+        <v>315.384615384615</v>
       </c>
       <c r="Q73" s="279" t="n">
         <f aca="false">(A73-B73)*(I_Cout_ss*$R$2+C73)</f>
-        <v>45.4881656804734</v>
+        <v>59.1346153846154</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39890,27 +39898,27 @@
       </c>
       <c r="F74" s="290" t="n">
         <f aca="false">I_Cout_ss+C74</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G74" s="292" t="n">
         <f aca="false">IF($F$2="YES", F74, E74)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H74" s="290" t="n">
         <f aca="false">G74-C74</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I74" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B74-B73)/H74</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J74" s="294" t="n">
         <f aca="false">J73+I74</f>
-        <v>0.02</v>
+        <v>0.0153846153846154</v>
       </c>
       <c r="K74" s="287" t="n">
         <f aca="false">J74*1000</f>
-        <v>20</v>
+        <v>15.3846153846154</v>
       </c>
       <c r="L74" s="282" t="n">
         <f aca="false">H74/G74</f>
@@ -39926,15 +39934,15 @@
       </c>
       <c r="O74" s="279" t="n">
         <f aca="false">G74*(A74-B74)</f>
-        <v>118.343195266272</v>
+        <v>153.846153846154</v>
       </c>
       <c r="P74" s="279" t="n">
         <f aca="false">(A74-B74)*(I_Cout_ss*$Q$2+C74)</f>
-        <v>236.686390532544</v>
+        <v>307.692307692308</v>
       </c>
       <c r="Q74" s="279" t="n">
         <f aca="false">(A74-B74)*(I_Cout_ss*$R$2+C74)</f>
-        <v>44.3786982248521</v>
+        <v>57.6923076923077</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39960,27 +39968,27 @@
       </c>
       <c r="F75" s="290" t="n">
         <f aca="false">I_Cout_ss+C75</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G75" s="292" t="n">
         <f aca="false">IF($F$2="YES", F75, E75)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H75" s="290" t="n">
         <f aca="false">G75-C75</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I75" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B75-B74)/H75</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J75" s="294" t="n">
         <f aca="false">J74+I75</f>
-        <v>0.0203125</v>
+        <v>0.015625</v>
       </c>
       <c r="K75" s="287" t="n">
         <f aca="false">J75*1000</f>
-        <v>20.3125</v>
+        <v>15.625</v>
       </c>
       <c r="L75" s="282" t="n">
         <f aca="false">H75/G75</f>
@@ -39996,15 +40004,15 @@
       </c>
       <c r="O75" s="279" t="n">
         <f aca="false">G75*(A75-B75)</f>
-        <v>115.384615384615</v>
+        <v>150</v>
       </c>
       <c r="P75" s="279" t="n">
         <f aca="false">(A75-B75)*(I_Cout_ss*$Q$2+C75)</f>
-        <v>230.769230769231</v>
+        <v>300</v>
       </c>
       <c r="Q75" s="279" t="n">
         <f aca="false">(A75-B75)*(I_Cout_ss*$R$2+C75)</f>
-        <v>43.2692307692308</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40030,27 +40038,27 @@
       </c>
       <c r="F76" s="290" t="n">
         <f aca="false">I_Cout_ss+C76</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G76" s="292" t="n">
         <f aca="false">IF($F$2="YES", F76, E76)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H76" s="290" t="n">
         <f aca="false">G76-C76</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I76" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B76-B75)/H76</f>
-        <v>0.000312499999999999</v>
+        <v>0.000240384615384615</v>
       </c>
       <c r="J76" s="294" t="n">
         <f aca="false">J75+I76</f>
-        <v>0.020625</v>
+        <v>0.0158653846153846</v>
       </c>
       <c r="K76" s="287" t="n">
         <f aca="false">J76*1000</f>
-        <v>20.625</v>
+        <v>15.8653846153846</v>
       </c>
       <c r="L76" s="282" t="n">
         <f aca="false">H76/G76</f>
@@ -40066,15 +40074,15 @@
       </c>
       <c r="O76" s="279" t="n">
         <f aca="false">G76*(A76-B76)</f>
-        <v>112.426035502959</v>
+        <v>146.153846153846</v>
       </c>
       <c r="P76" s="279" t="n">
         <f aca="false">(A76-B76)*(I_Cout_ss*$Q$2+C76)</f>
-        <v>224.852071005917</v>
+        <v>292.307692307692</v>
       </c>
       <c r="Q76" s="279" t="n">
         <f aca="false">(A76-B76)*(I_Cout_ss*$R$2+C76)</f>
-        <v>42.1597633136095</v>
+        <v>54.8076923076923</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40100,27 +40108,27 @@
       </c>
       <c r="F77" s="290" t="n">
         <f aca="false">I_Cout_ss+C77</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G77" s="292" t="n">
         <f aca="false">IF($F$2="YES", F77, E77)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H77" s="290" t="n">
         <f aca="false">G77-C77</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I77" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B77-B76)/H77</f>
-        <v>0.000312500000000004</v>
+        <v>0.000240384615384619</v>
       </c>
       <c r="J77" s="294" t="n">
         <f aca="false">J76+I77</f>
-        <v>0.0209375</v>
+        <v>0.0161057692307692</v>
       </c>
       <c r="K77" s="287" t="n">
         <f aca="false">J77*1000</f>
-        <v>20.9375</v>
+        <v>16.1057692307692</v>
       </c>
       <c r="L77" s="282" t="n">
         <f aca="false">H77/G77</f>
@@ -40136,15 +40144,15 @@
       </c>
       <c r="O77" s="279" t="n">
         <f aca="false">G77*(A77-B77)</f>
-        <v>109.467455621302</v>
+        <v>142.307692307692</v>
       </c>
       <c r="P77" s="279" t="n">
         <f aca="false">(A77-B77)*(I_Cout_ss*$Q$2+C77)</f>
-        <v>218.934911242604</v>
+        <v>284.615384615385</v>
       </c>
       <c r="Q77" s="279" t="n">
         <f aca="false">(A77-B77)*(I_Cout_ss*$R$2+C77)</f>
-        <v>41.0502958579882</v>
+        <v>53.3653846153846</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40170,27 +40178,27 @@
       </c>
       <c r="F78" s="290" t="n">
         <f aca="false">I_Cout_ss+C78</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G78" s="292" t="n">
         <f aca="false">IF($F$2="YES", F78, E78)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H78" s="290" t="n">
         <f aca="false">G78-C78</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I78" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B78-B77)/H78</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J78" s="294" t="n">
         <f aca="false">J77+I78</f>
-        <v>0.02125</v>
+        <v>0.0163461538461538</v>
       </c>
       <c r="K78" s="287" t="n">
         <f aca="false">J78*1000</f>
-        <v>21.25</v>
+        <v>16.3461538461538</v>
       </c>
       <c r="L78" s="282" t="n">
         <f aca="false">H78/G78</f>
@@ -40206,15 +40214,15 @@
       </c>
       <c r="O78" s="279" t="n">
         <f aca="false">G78*(A78-B78)</f>
-        <v>106.508875739645</v>
+        <v>138.461538461538</v>
       </c>
       <c r="P78" s="279" t="n">
         <f aca="false">(A78-B78)*(I_Cout_ss*$Q$2+C78)</f>
-        <v>213.01775147929</v>
+        <v>276.923076923077</v>
       </c>
       <c r="Q78" s="279" t="n">
         <f aca="false">(A78-B78)*(I_Cout_ss*$R$2+C78)</f>
-        <v>39.9408284023669</v>
+        <v>51.9230769230769</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40240,27 +40248,27 @@
       </c>
       <c r="F79" s="290" t="n">
         <f aca="false">I_Cout_ss+C79</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G79" s="292" t="n">
         <f aca="false">IF($F$2="YES", F79, E79)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H79" s="290" t="n">
         <f aca="false">G79-C79</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I79" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B79-B78)/H79</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J79" s="294" t="n">
         <f aca="false">J78+I79</f>
-        <v>0.0215625</v>
+        <v>0.0165865384615385</v>
       </c>
       <c r="K79" s="287" t="n">
         <f aca="false">J79*1000</f>
-        <v>21.5625</v>
+        <v>16.5865384615385</v>
       </c>
       <c r="L79" s="282" t="n">
         <f aca="false">H79/G79</f>
@@ -40276,15 +40284,15 @@
       </c>
       <c r="O79" s="279" t="n">
         <f aca="false">G79*(A79-B79)</f>
-        <v>103.550295857988</v>
+        <v>134.615384615385</v>
       </c>
       <c r="P79" s="279" t="n">
         <f aca="false">(A79-B79)*(I_Cout_ss*$Q$2+C79)</f>
-        <v>207.100591715976</v>
+        <v>269.230769230769</v>
       </c>
       <c r="Q79" s="279" t="n">
         <f aca="false">(A79-B79)*(I_Cout_ss*$R$2+C79)</f>
-        <v>38.8313609467456</v>
+        <v>50.4807692307692</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40310,27 +40318,27 @@
       </c>
       <c r="F80" s="290" t="n">
         <f aca="false">I_Cout_ss+C80</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G80" s="292" t="n">
         <f aca="false">IF($F$2="YES", F80, E80)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H80" s="290" t="n">
         <f aca="false">G80-C80</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I80" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B80-B79)/H80</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J80" s="294" t="n">
         <f aca="false">J79+I80</f>
-        <v>0.021875</v>
+        <v>0.0168269230769231</v>
       </c>
       <c r="K80" s="287" t="n">
         <f aca="false">J80*1000</f>
-        <v>21.875</v>
+        <v>16.8269230769231</v>
       </c>
       <c r="L80" s="282" t="n">
         <f aca="false">H80/G80</f>
@@ -40346,15 +40354,15 @@
       </c>
       <c r="O80" s="279" t="n">
         <f aca="false">G80*(A80-B80)</f>
-        <v>100.591715976331</v>
+        <v>130.769230769231</v>
       </c>
       <c r="P80" s="279" t="n">
         <f aca="false">(A80-B80)*(I_Cout_ss*$Q$2+C80)</f>
-        <v>201.183431952663</v>
+        <v>261.538461538462</v>
       </c>
       <c r="Q80" s="279" t="n">
         <f aca="false">(A80-B80)*(I_Cout_ss*$R$2+C80)</f>
-        <v>37.7218934911243</v>
+        <v>49.0384615384615</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40380,27 +40388,27 @@
       </c>
       <c r="F81" s="290" t="n">
         <f aca="false">I_Cout_ss+C81</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G81" s="292" t="n">
         <f aca="false">IF($F$2="YES", F81, E81)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H81" s="290" t="n">
         <f aca="false">G81-C81</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I81" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B81-B80)/H81</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J81" s="294" t="n">
         <f aca="false">J80+I81</f>
-        <v>0.0221875</v>
+        <v>0.0170673076923077</v>
       </c>
       <c r="K81" s="287" t="n">
         <f aca="false">J81*1000</f>
-        <v>22.1875</v>
+        <v>17.0673076923077</v>
       </c>
       <c r="L81" s="282" t="n">
         <f aca="false">H81/G81</f>
@@ -40416,15 +40424,15 @@
       </c>
       <c r="O81" s="279" t="n">
         <f aca="false">G81*(A81-B81)</f>
-        <v>97.6331360946746</v>
+        <v>126.923076923077</v>
       </c>
       <c r="P81" s="279" t="n">
         <f aca="false">(A81-B81)*(I_Cout_ss*$Q$2+C81)</f>
-        <v>195.266272189349</v>
+        <v>253.846153846154</v>
       </c>
       <c r="Q81" s="279" t="n">
         <f aca="false">(A81-B81)*(I_Cout_ss*$R$2+C81)</f>
-        <v>36.612426035503</v>
+        <v>47.5961538461538</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40450,27 +40458,27 @@
       </c>
       <c r="F82" s="290" t="n">
         <f aca="false">I_Cout_ss+C82</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G82" s="292" t="n">
         <f aca="false">IF($F$2="YES", F82, E82)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H82" s="290" t="n">
         <f aca="false">G82-C82</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I82" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B82-B81)/H82</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J82" s="294" t="n">
         <f aca="false">J81+I82</f>
-        <v>0.0225</v>
+        <v>0.0173076923076923</v>
       </c>
       <c r="K82" s="287" t="n">
         <f aca="false">J82*1000</f>
-        <v>22.5</v>
+        <v>17.3076923076923</v>
       </c>
       <c r="L82" s="282" t="n">
         <f aca="false">H82/G82</f>
@@ -40486,15 +40494,15 @@
       </c>
       <c r="O82" s="279" t="n">
         <f aca="false">G82*(A82-B82)</f>
-        <v>94.6745562130178</v>
+        <v>123.076923076923</v>
       </c>
       <c r="P82" s="279" t="n">
         <f aca="false">(A82-B82)*(I_Cout_ss*$Q$2+C82)</f>
-        <v>189.349112426036</v>
+        <v>246.153846153846</v>
       </c>
       <c r="Q82" s="279" t="n">
         <f aca="false">(A82-B82)*(I_Cout_ss*$R$2+C82)</f>
-        <v>35.5029585798817</v>
+        <v>46.1538461538462</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40520,27 +40528,27 @@
       </c>
       <c r="F83" s="290" t="n">
         <f aca="false">I_Cout_ss+C83</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G83" s="292" t="n">
         <f aca="false">IF($F$2="YES", F83, E83)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H83" s="290" t="n">
         <f aca="false">G83-C83</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I83" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B83-B82)/H83</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J83" s="294" t="n">
         <f aca="false">J82+I83</f>
-        <v>0.0228125</v>
+        <v>0.0175480769230769</v>
       </c>
       <c r="K83" s="287" t="n">
         <f aca="false">J83*1000</f>
-        <v>22.8125</v>
+        <v>17.5480769230769</v>
       </c>
       <c r="L83" s="282" t="n">
         <f aca="false">H83/G83</f>
@@ -40556,15 +40564,15 @@
       </c>
       <c r="O83" s="279" t="n">
         <f aca="false">G83*(A83-B83)</f>
-        <v>91.715976331361</v>
+        <v>119.230769230769</v>
       </c>
       <c r="P83" s="279" t="n">
         <f aca="false">(A83-B83)*(I_Cout_ss*$Q$2+C83)</f>
-        <v>183.431952662722</v>
+        <v>238.461538461538</v>
       </c>
       <c r="Q83" s="279" t="n">
         <f aca="false">(A83-B83)*(I_Cout_ss*$R$2+C83)</f>
-        <v>34.3934911242604</v>
+        <v>44.7115384615385</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40590,27 +40598,27 @@
       </c>
       <c r="F84" s="290" t="n">
         <f aca="false">I_Cout_ss+C84</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G84" s="292" t="n">
         <f aca="false">IF($F$2="YES", F84, E84)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H84" s="290" t="n">
         <f aca="false">G84-C84</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I84" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B84-B83)/H84</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J84" s="294" t="n">
         <f aca="false">J83+I84</f>
-        <v>0.023125</v>
+        <v>0.0177884615384615</v>
       </c>
       <c r="K84" s="287" t="n">
         <f aca="false">J84*1000</f>
-        <v>23.125</v>
+        <v>17.7884615384615</v>
       </c>
       <c r="L84" s="282" t="n">
         <f aca="false">H84/G84</f>
@@ -40626,15 +40634,15 @@
       </c>
       <c r="O84" s="279" t="n">
         <f aca="false">G84*(A84-B84)</f>
-        <v>88.7573964497041</v>
+        <v>115.384615384615</v>
       </c>
       <c r="P84" s="279" t="n">
         <f aca="false">(A84-B84)*(I_Cout_ss*$Q$2+C84)</f>
-        <v>177.514792899408</v>
+        <v>230.769230769231</v>
       </c>
       <c r="Q84" s="279" t="n">
         <f aca="false">(A84-B84)*(I_Cout_ss*$R$2+C84)</f>
-        <v>33.2840236686391</v>
+        <v>43.2692307692308</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40660,27 +40668,27 @@
       </c>
       <c r="F85" s="290" t="n">
         <f aca="false">I_Cout_ss+C85</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G85" s="292" t="n">
         <f aca="false">IF($F$2="YES", F85, E85)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H85" s="290" t="n">
         <f aca="false">G85-C85</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I85" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B85-B84)/H85</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J85" s="294" t="n">
         <f aca="false">J84+I85</f>
-        <v>0.0234375</v>
+        <v>0.0180288461538462</v>
       </c>
       <c r="K85" s="287" t="n">
         <f aca="false">J85*1000</f>
-        <v>23.4375</v>
+        <v>18.0288461538462</v>
       </c>
       <c r="L85" s="282" t="n">
         <f aca="false">H85/G85</f>
@@ -40696,15 +40704,15 @@
       </c>
       <c r="O85" s="279" t="n">
         <f aca="false">G85*(A85-B85)</f>
-        <v>85.7988165680473</v>
+        <v>111.538461538462</v>
       </c>
       <c r="P85" s="279" t="n">
         <f aca="false">(A85-B85)*(I_Cout_ss*$Q$2+C85)</f>
-        <v>171.597633136095</v>
+        <v>223.076923076923</v>
       </c>
       <c r="Q85" s="279" t="n">
         <f aca="false">(A85-B85)*(I_Cout_ss*$R$2+C85)</f>
-        <v>32.1745562130178</v>
+        <v>41.8269230769231</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40730,27 +40738,27 @@
       </c>
       <c r="F86" s="290" t="n">
         <f aca="false">I_Cout_ss+C86</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G86" s="292" t="n">
         <f aca="false">IF($F$2="YES", F86, E86)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H86" s="290" t="n">
         <f aca="false">G86-C86</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I86" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B86-B85)/H86</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J86" s="294" t="n">
         <f aca="false">J85+I86</f>
-        <v>0.02375</v>
+        <v>0.0182692307692308</v>
       </c>
       <c r="K86" s="287" t="n">
         <f aca="false">J86*1000</f>
-        <v>23.75</v>
+        <v>18.2692307692308</v>
       </c>
       <c r="L86" s="282" t="n">
         <f aca="false">H86/G86</f>
@@ -40766,15 +40774,15 @@
       </c>
       <c r="O86" s="279" t="n">
         <f aca="false">G86*(A86-B86)</f>
-        <v>82.8402366863906</v>
+        <v>107.692307692308</v>
       </c>
       <c r="P86" s="279" t="n">
         <f aca="false">(A86-B86)*(I_Cout_ss*$Q$2+C86)</f>
-        <v>165.680473372781</v>
+        <v>215.384615384615</v>
       </c>
       <c r="Q86" s="279" t="n">
         <f aca="false">(A86-B86)*(I_Cout_ss*$R$2+C86)</f>
-        <v>31.0650887573965</v>
+        <v>40.3846153846154</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40800,27 +40808,27 @@
       </c>
       <c r="F87" s="290" t="n">
         <f aca="false">I_Cout_ss+C87</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G87" s="292" t="n">
         <f aca="false">IF($F$2="YES", F87, E87)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H87" s="290" t="n">
         <f aca="false">G87-C87</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I87" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B87-B86)/H87</f>
-        <v>0.000312500000000006</v>
+        <v>0.00024038461538462</v>
       </c>
       <c r="J87" s="294" t="n">
         <f aca="false">J86+I87</f>
-        <v>0.0240625</v>
+        <v>0.0185096153846154</v>
       </c>
       <c r="K87" s="287" t="n">
         <f aca="false">J87*1000</f>
-        <v>24.0625</v>
+        <v>18.5096153846154</v>
       </c>
       <c r="L87" s="282" t="n">
         <f aca="false">H87/G87</f>
@@ -40836,15 +40844,15 @@
       </c>
       <c r="O87" s="279" t="n">
         <f aca="false">G87*(A87-B87)</f>
-        <v>79.8816568047337</v>
+        <v>103.846153846154</v>
       </c>
       <c r="P87" s="279" t="n">
         <f aca="false">(A87-B87)*(I_Cout_ss*$Q$2+C87)</f>
-        <v>159.763313609467</v>
+        <v>207.692307692308</v>
       </c>
       <c r="Q87" s="279" t="n">
         <f aca="false">(A87-B87)*(I_Cout_ss*$R$2+C87)</f>
-        <v>29.9556213017751</v>
+        <v>38.9423076923077</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40870,27 +40878,27 @@
       </c>
       <c r="F88" s="290" t="n">
         <f aca="false">I_Cout_ss+C88</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G88" s="292" t="n">
         <f aca="false">IF($F$2="YES", F88, E88)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H88" s="290" t="n">
         <f aca="false">G88-C88</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I88" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B88-B87)/H88</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J88" s="294" t="n">
         <f aca="false">J87+I88</f>
-        <v>0.024375</v>
+        <v>0.01875</v>
       </c>
       <c r="K88" s="287" t="n">
         <f aca="false">J88*1000</f>
-        <v>24.375</v>
+        <v>18.75</v>
       </c>
       <c r="L88" s="282" t="n">
         <f aca="false">H88/G88</f>
@@ -40906,15 +40914,15 @@
       </c>
       <c r="O88" s="279" t="n">
         <f aca="false">G88*(A88-B88)</f>
-        <v>76.9230769230769</v>
+        <v>100</v>
       </c>
       <c r="P88" s="279" t="n">
         <f aca="false">(A88-B88)*(I_Cout_ss*$Q$2+C88)</f>
-        <v>153.846153846154</v>
+        <v>200</v>
       </c>
       <c r="Q88" s="279" t="n">
         <f aca="false">(A88-B88)*(I_Cout_ss*$R$2+C88)</f>
-        <v>28.8461538461538</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40940,27 +40948,27 @@
       </c>
       <c r="F89" s="290" t="n">
         <f aca="false">I_Cout_ss+C89</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G89" s="292" t="n">
         <f aca="false">IF($F$2="YES", F89, E89)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H89" s="290" t="n">
         <f aca="false">G89-C89</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I89" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B89-B88)/H89</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J89" s="294" t="n">
         <f aca="false">J88+I89</f>
-        <v>0.0246875</v>
+        <v>0.0189903846153846</v>
       </c>
       <c r="K89" s="287" t="n">
         <f aca="false">J89*1000</f>
-        <v>24.6875</v>
+        <v>18.9903846153846</v>
       </c>
       <c r="L89" s="282" t="n">
         <f aca="false">H89/G89</f>
@@ -40976,15 +40984,15 @@
       </c>
       <c r="O89" s="279" t="n">
         <f aca="false">G89*(A89-B89)</f>
-        <v>73.9644970414201</v>
+        <v>96.1538461538462</v>
       </c>
       <c r="P89" s="279" t="n">
         <f aca="false">(A89-B89)*(I_Cout_ss*$Q$2+C89)</f>
-        <v>147.92899408284</v>
+        <v>192.307692307692</v>
       </c>
       <c r="Q89" s="279" t="n">
         <f aca="false">(A89-B89)*(I_Cout_ss*$R$2+C89)</f>
-        <v>27.7366863905326</v>
+        <v>36.0576923076923</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41010,27 +41018,27 @@
       </c>
       <c r="F90" s="290" t="n">
         <f aca="false">I_Cout_ss+C90</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G90" s="292" t="n">
         <f aca="false">IF($F$2="YES", F90, E90)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H90" s="290" t="n">
         <f aca="false">G90-C90</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I90" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B90-B89)/H90</f>
-        <v>0.000312500000000006</v>
+        <v>0.00024038461538462</v>
       </c>
       <c r="J90" s="294" t="n">
         <f aca="false">J89+I90</f>
-        <v>0.025</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="K90" s="287" t="n">
         <f aca="false">J90*1000</f>
-        <v>25</v>
+        <v>19.2307692307692</v>
       </c>
       <c r="L90" s="282" t="n">
         <f aca="false">H90/G90</f>
@@ -41046,15 +41054,15 @@
       </c>
       <c r="O90" s="279" t="n">
         <f aca="false">G90*(A90-B90)</f>
-        <v>71.0059171597633</v>
+        <v>92.3076923076923</v>
       </c>
       <c r="P90" s="279" t="n">
         <f aca="false">(A90-B90)*(I_Cout_ss*$Q$2+C90)</f>
-        <v>142.011834319527</v>
+        <v>184.615384615385</v>
       </c>
       <c r="Q90" s="279" t="n">
         <f aca="false">(A90-B90)*(I_Cout_ss*$R$2+C90)</f>
-        <v>26.6272189349112</v>
+        <v>34.6153846153846</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41080,27 +41088,27 @@
       </c>
       <c r="F91" s="290" t="n">
         <f aca="false">I_Cout_ss+C91</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G91" s="292" t="n">
         <f aca="false">IF($F$2="YES", F91, E91)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H91" s="290" t="n">
         <f aca="false">G91-C91</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I91" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B91-B90)/H91</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J91" s="294" t="n">
         <f aca="false">J90+I91</f>
-        <v>0.0253125</v>
+        <v>0.0194711538461539</v>
       </c>
       <c r="K91" s="287" t="n">
         <f aca="false">J91*1000</f>
-        <v>25.3125</v>
+        <v>19.4711538461539</v>
       </c>
       <c r="L91" s="282" t="n">
         <f aca="false">H91/G91</f>
@@ -41116,15 +41124,15 @@
       </c>
       <c r="O91" s="279" t="n">
         <f aca="false">G91*(A91-B91)</f>
-        <v>68.0473372781065</v>
+        <v>88.4615384615385</v>
       </c>
       <c r="P91" s="279" t="n">
         <f aca="false">(A91-B91)*(I_Cout_ss*$Q$2+C91)</f>
-        <v>136.094674556213</v>
+        <v>176.923076923077</v>
       </c>
       <c r="Q91" s="279" t="n">
         <f aca="false">(A91-B91)*(I_Cout_ss*$R$2+C91)</f>
-        <v>25.5177514792899</v>
+        <v>33.1730769230769</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41150,27 +41158,27 @@
       </c>
       <c r="F92" s="290" t="n">
         <f aca="false">I_Cout_ss+C92</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G92" s="292" t="n">
         <f aca="false">IF($F$2="YES", F92, E92)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H92" s="290" t="n">
         <f aca="false">G92-C92</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I92" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B92-B91)/H92</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J92" s="294" t="n">
         <f aca="false">J91+I92</f>
-        <v>0.025625</v>
+        <v>0.0197115384615385</v>
       </c>
       <c r="K92" s="287" t="n">
         <f aca="false">J92*1000</f>
-        <v>25.625</v>
+        <v>19.7115384615385</v>
       </c>
       <c r="L92" s="282" t="n">
         <f aca="false">H92/G92</f>
@@ -41186,15 +41194,15 @@
       </c>
       <c r="O92" s="279" t="n">
         <f aca="false">G92*(A92-B92)</f>
-        <v>65.0887573964497</v>
+        <v>84.6153846153846</v>
       </c>
       <c r="P92" s="279" t="n">
         <f aca="false">(A92-B92)*(I_Cout_ss*$Q$2+C92)</f>
-        <v>130.177514792899</v>
+        <v>169.230769230769</v>
       </c>
       <c r="Q92" s="279" t="n">
         <f aca="false">(A92-B92)*(I_Cout_ss*$R$2+C92)</f>
-        <v>24.4082840236686</v>
+        <v>31.7307692307692</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41220,27 +41228,27 @@
       </c>
       <c r="F93" s="290" t="n">
         <f aca="false">I_Cout_ss+C93</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G93" s="292" t="n">
         <f aca="false">IF($F$2="YES", F93, E93)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H93" s="290" t="n">
         <f aca="false">G93-C93</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I93" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B93-B92)/H93</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J93" s="294" t="n">
         <f aca="false">J92+I93</f>
-        <v>0.0259375</v>
+        <v>0.0199519230769231</v>
       </c>
       <c r="K93" s="287" t="n">
         <f aca="false">J93*1000</f>
-        <v>25.9375</v>
+        <v>19.9519230769231</v>
       </c>
       <c r="L93" s="282" t="n">
         <f aca="false">H93/G93</f>
@@ -41256,15 +41264,15 @@
       </c>
       <c r="O93" s="279" t="n">
         <f aca="false">G93*(A93-B93)</f>
-        <v>62.1301775147929</v>
+        <v>80.7692307692308</v>
       </c>
       <c r="P93" s="279" t="n">
         <f aca="false">(A93-B93)*(I_Cout_ss*$Q$2+C93)</f>
-        <v>124.260355029586</v>
+        <v>161.538461538462</v>
       </c>
       <c r="Q93" s="279" t="n">
         <f aca="false">(A93-B93)*(I_Cout_ss*$R$2+C93)</f>
-        <v>23.2988165680473</v>
+        <v>30.2884615384615</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41290,27 +41298,27 @@
       </c>
       <c r="F94" s="290" t="n">
         <f aca="false">I_Cout_ss+C94</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G94" s="292" t="n">
         <f aca="false">IF($F$2="YES", F94, E94)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H94" s="290" t="n">
         <f aca="false">G94-C94</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I94" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B94-B93)/H94</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J94" s="294" t="n">
         <f aca="false">J93+I94</f>
-        <v>0.02625</v>
+        <v>0.0201923076923077</v>
       </c>
       <c r="K94" s="287" t="n">
         <f aca="false">J94*1000</f>
-        <v>26.25</v>
+        <v>20.1923076923077</v>
       </c>
       <c r="L94" s="282" t="n">
         <f aca="false">H94/G94</f>
@@ -41326,15 +41334,15 @@
       </c>
       <c r="O94" s="279" t="n">
         <f aca="false">G94*(A94-B94)</f>
-        <v>59.1715976331361</v>
+        <v>76.9230769230769</v>
       </c>
       <c r="P94" s="279" t="n">
         <f aca="false">(A94-B94)*(I_Cout_ss*$Q$2+C94)</f>
-        <v>118.343195266272</v>
+        <v>153.846153846154</v>
       </c>
       <c r="Q94" s="279" t="n">
         <f aca="false">(A94-B94)*(I_Cout_ss*$R$2+C94)</f>
-        <v>22.189349112426</v>
+        <v>28.8461538461538</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41360,27 +41368,27 @@
       </c>
       <c r="F95" s="290" t="n">
         <f aca="false">I_Cout_ss+C95</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G95" s="292" t="n">
         <f aca="false">IF($F$2="YES", F95, E95)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H95" s="290" t="n">
         <f aca="false">G95-C95</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I95" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B95-B94)/H95</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J95" s="294" t="n">
         <f aca="false">J94+I95</f>
-        <v>0.0265625</v>
+        <v>0.0204326923076923</v>
       </c>
       <c r="K95" s="287" t="n">
         <f aca="false">J95*1000</f>
-        <v>26.5625</v>
+        <v>20.4326923076923</v>
       </c>
       <c r="L95" s="282" t="n">
         <f aca="false">H95/G95</f>
@@ -41396,15 +41404,15 @@
       </c>
       <c r="O95" s="279" t="n">
         <f aca="false">G95*(A95-B95)</f>
-        <v>56.2130177514793</v>
+        <v>73.0769230769231</v>
       </c>
       <c r="P95" s="279" t="n">
         <f aca="false">(A95-B95)*(I_Cout_ss*$Q$2+C95)</f>
-        <v>112.426035502959</v>
+        <v>146.153846153846</v>
       </c>
       <c r="Q95" s="279" t="n">
         <f aca="false">(A95-B95)*(I_Cout_ss*$R$2+C95)</f>
-        <v>21.0798816568047</v>
+        <v>27.4038461538462</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41430,27 +41438,27 @@
       </c>
       <c r="F96" s="290" t="n">
         <f aca="false">I_Cout_ss+C96</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G96" s="292" t="n">
         <f aca="false">IF($F$2="YES", F96, E96)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H96" s="290" t="n">
         <f aca="false">G96-C96</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I96" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B96-B95)/H96</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J96" s="294" t="n">
         <f aca="false">J95+I96</f>
-        <v>0.026875</v>
+        <v>0.0206730769230769</v>
       </c>
       <c r="K96" s="287" t="n">
         <f aca="false">J96*1000</f>
-        <v>26.875</v>
+        <v>20.6730769230769</v>
       </c>
       <c r="L96" s="282" t="n">
         <f aca="false">H96/G96</f>
@@ -41466,15 +41474,15 @@
       </c>
       <c r="O96" s="279" t="n">
         <f aca="false">G96*(A96-B96)</f>
-        <v>53.2544378698225</v>
+        <v>69.2307692307692</v>
       </c>
       <c r="P96" s="279" t="n">
         <f aca="false">(A96-B96)*(I_Cout_ss*$Q$2+C96)</f>
-        <v>106.508875739645</v>
+        <v>138.461538461538</v>
       </c>
       <c r="Q96" s="279" t="n">
         <f aca="false">(A96-B96)*(I_Cout_ss*$R$2+C96)</f>
-        <v>19.9704142011834</v>
+        <v>25.9615384615385</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41500,27 +41508,27 @@
       </c>
       <c r="F97" s="290" t="n">
         <f aca="false">I_Cout_ss+C97</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G97" s="292" t="n">
         <f aca="false">IF($F$2="YES", F97, E97)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H97" s="290" t="n">
         <f aca="false">G97-C97</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I97" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B97-B96)/H97</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J97" s="294" t="n">
         <f aca="false">J96+I97</f>
-        <v>0.0271875</v>
+        <v>0.0209134615384616</v>
       </c>
       <c r="K97" s="287" t="n">
         <f aca="false">J97*1000</f>
-        <v>27.1875</v>
+        <v>20.9134615384616</v>
       </c>
       <c r="L97" s="282" t="n">
         <f aca="false">H97/G97</f>
@@ -41536,15 +41544,15 @@
       </c>
       <c r="O97" s="279" t="n">
         <f aca="false">G97*(A97-B97)</f>
-        <v>50.2958579881657</v>
+        <v>65.3846153846154</v>
       </c>
       <c r="P97" s="279" t="n">
         <f aca="false">(A97-B97)*(I_Cout_ss*$Q$2+C97)</f>
-        <v>100.591715976331</v>
+        <v>130.769230769231</v>
       </c>
       <c r="Q97" s="279" t="n">
         <f aca="false">(A97-B97)*(I_Cout_ss*$R$2+C97)</f>
-        <v>18.8609467455621</v>
+        <v>24.5192307692308</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41570,27 +41578,27 @@
       </c>
       <c r="F98" s="290" t="n">
         <f aca="false">I_Cout_ss+C98</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G98" s="292" t="n">
         <f aca="false">IF($F$2="YES", F98, E98)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H98" s="290" t="n">
         <f aca="false">G98-C98</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I98" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B98-B97)/H98</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J98" s="294" t="n">
         <f aca="false">J97+I98</f>
-        <v>0.0275</v>
+        <v>0.0211538461538462</v>
       </c>
       <c r="K98" s="287" t="n">
         <f aca="false">J98*1000</f>
-        <v>27.5</v>
+        <v>21.1538461538462</v>
       </c>
       <c r="L98" s="282" t="n">
         <f aca="false">H98/G98</f>
@@ -41606,15 +41614,15 @@
       </c>
       <c r="O98" s="279" t="n">
         <f aca="false">G98*(A98-B98)</f>
-        <v>47.3372781065089</v>
+        <v>61.5384615384616</v>
       </c>
       <c r="P98" s="279" t="n">
         <f aca="false">(A98-B98)*(I_Cout_ss*$Q$2+C98)</f>
-        <v>94.6745562130178</v>
+        <v>123.076923076923</v>
       </c>
       <c r="Q98" s="279" t="n">
         <f aca="false">(A98-B98)*(I_Cout_ss*$R$2+C98)</f>
-        <v>17.7514792899408</v>
+        <v>23.0769230769231</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41640,27 +41648,27 @@
       </c>
       <c r="F99" s="290" t="n">
         <f aca="false">I_Cout_ss+C99</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G99" s="292" t="n">
         <f aca="false">IF($F$2="YES", F99, E99)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H99" s="290" t="n">
         <f aca="false">G99-C99</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I99" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B99-B98)/H99</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J99" s="294" t="n">
         <f aca="false">J98+I99</f>
-        <v>0.0278125</v>
+        <v>0.0213942307692308</v>
       </c>
       <c r="K99" s="287" t="n">
         <f aca="false">J99*1000</f>
-        <v>27.8125</v>
+        <v>21.3942307692308</v>
       </c>
       <c r="L99" s="282" t="n">
         <f aca="false">H99/G99</f>
@@ -41676,15 +41684,15 @@
       </c>
       <c r="O99" s="279" t="n">
         <f aca="false">G99*(A99-B99)</f>
-        <v>44.3786982248521</v>
+        <v>57.6923076923077</v>
       </c>
       <c r="P99" s="279" t="n">
         <f aca="false">(A99-B99)*(I_Cout_ss*$Q$2+C99)</f>
-        <v>88.7573964497042</v>
+        <v>115.384615384615</v>
       </c>
       <c r="Q99" s="279" t="n">
         <f aca="false">(A99-B99)*(I_Cout_ss*$R$2+C99)</f>
-        <v>16.6420118343195</v>
+        <v>21.6346153846154</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41710,27 +41718,27 @@
       </c>
       <c r="F100" s="290" t="n">
         <f aca="false">I_Cout_ss+C100</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G100" s="292" t="n">
         <f aca="false">IF($F$2="YES", F100, E100)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H100" s="290" t="n">
         <f aca="false">G100-C100</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I100" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B100-B99)/H100</f>
-        <v>0.000312500000000006</v>
+        <v>0.00024038461538462</v>
       </c>
       <c r="J100" s="294" t="n">
         <f aca="false">J99+I100</f>
-        <v>0.028125</v>
+        <v>0.0216346153846154</v>
       </c>
       <c r="K100" s="287" t="n">
         <f aca="false">J100*1000</f>
-        <v>28.125</v>
+        <v>21.6346153846154</v>
       </c>
       <c r="L100" s="282" t="n">
         <f aca="false">H100/G100</f>
@@ -41746,15 +41754,15 @@
       </c>
       <c r="O100" s="279" t="n">
         <f aca="false">G100*(A100-B100)</f>
-        <v>41.4201183431952</v>
+        <v>53.8461538461538</v>
       </c>
       <c r="P100" s="279" t="n">
         <f aca="false">(A100-B100)*(I_Cout_ss*$Q$2+C100)</f>
-        <v>82.8402366863905</v>
+        <v>107.692307692308</v>
       </c>
       <c r="Q100" s="279" t="n">
         <f aca="false">(A100-B100)*(I_Cout_ss*$R$2+C100)</f>
-        <v>15.5325443786982</v>
+        <v>20.1923076923077</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41780,27 +41788,27 @@
       </c>
       <c r="F101" s="290" t="n">
         <f aca="false">I_Cout_ss+C101</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G101" s="292" t="n">
         <f aca="false">IF($F$2="YES", F101, E101)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H101" s="290" t="n">
         <f aca="false">G101-C101</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I101" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B101-B100)/H101</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J101" s="294" t="n">
         <f aca="false">J100+I101</f>
-        <v>0.0284375</v>
+        <v>0.021875</v>
       </c>
       <c r="K101" s="287" t="n">
         <f aca="false">J101*1000</f>
-        <v>28.4375</v>
+        <v>21.875</v>
       </c>
       <c r="L101" s="282" t="n">
         <f aca="false">H101/G101</f>
@@ -41816,15 +41824,15 @@
       </c>
       <c r="O101" s="279" t="n">
         <f aca="false">G101*(A101-B101)</f>
-        <v>38.4615384615385</v>
+        <v>50</v>
       </c>
       <c r="P101" s="279" t="n">
         <f aca="false">(A101-B101)*(I_Cout_ss*$Q$2+C101)</f>
-        <v>76.9230769230769</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="279" t="n">
         <f aca="false">(A101-B101)*(I_Cout_ss*$R$2+C101)</f>
-        <v>14.4230769230769</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41850,27 +41858,27 @@
       </c>
       <c r="F102" s="290" t="n">
         <f aca="false">I_Cout_ss+C102</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G102" s="292" t="n">
         <f aca="false">IF($F$2="YES", F102, E102)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H102" s="290" t="n">
         <f aca="false">G102-C102</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I102" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B102-B101)/H102</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J102" s="294" t="n">
         <f aca="false">J101+I102</f>
-        <v>0.02875</v>
+        <v>0.0221153846153846</v>
       </c>
       <c r="K102" s="287" t="n">
         <f aca="false">J102*1000</f>
-        <v>28.75</v>
+        <v>22.1153846153846</v>
       </c>
       <c r="L102" s="282" t="n">
         <f aca="false">H102/G102</f>
@@ -41886,15 +41894,15 @@
       </c>
       <c r="O102" s="279" t="n">
         <f aca="false">G102*(A102-B102)</f>
-        <v>35.5029585798817</v>
+        <v>46.1538461538462</v>
       </c>
       <c r="P102" s="279" t="n">
         <f aca="false">(A102-B102)*(I_Cout_ss*$Q$2+C102)</f>
-        <v>71.0059171597634</v>
+        <v>92.3076923076924</v>
       </c>
       <c r="Q102" s="279" t="n">
         <f aca="false">(A102-B102)*(I_Cout_ss*$R$2+C102)</f>
-        <v>13.3136094674556</v>
+        <v>17.3076923076923</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41920,27 +41928,27 @@
       </c>
       <c r="F103" s="290" t="n">
         <f aca="false">I_Cout_ss+C103</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G103" s="292" t="n">
         <f aca="false">IF($F$2="YES", F103, E103)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H103" s="290" t="n">
         <f aca="false">G103-C103</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I103" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B103-B102)/H103</f>
-        <v>0.000312500000000006</v>
+        <v>0.00024038461538462</v>
       </c>
       <c r="J103" s="294" t="n">
         <f aca="false">J102+I103</f>
-        <v>0.0290625</v>
+        <v>0.0223557692307693</v>
       </c>
       <c r="K103" s="287" t="n">
         <f aca="false">J103*1000</f>
-        <v>29.0625</v>
+        <v>22.3557692307693</v>
       </c>
       <c r="L103" s="282" t="n">
         <f aca="false">H103/G103</f>
@@ -41956,15 +41964,15 @@
       </c>
       <c r="O103" s="279" t="n">
         <f aca="false">G103*(A103-B103)</f>
-        <v>32.5443786982248</v>
+        <v>42.3076923076923</v>
       </c>
       <c r="P103" s="279" t="n">
         <f aca="false">(A103-B103)*(I_Cout_ss*$Q$2+C103)</f>
-        <v>65.0887573964496</v>
+        <v>84.6153846153845</v>
       </c>
       <c r="Q103" s="279" t="n">
         <f aca="false">(A103-B103)*(I_Cout_ss*$R$2+C103)</f>
-        <v>12.2041420118343</v>
+        <v>15.8653846153846</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41990,27 +41998,27 @@
       </c>
       <c r="F104" s="290" t="n">
         <f aca="false">I_Cout_ss+C104</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G104" s="292" t="n">
         <f aca="false">IF($F$2="YES", F104, E104)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H104" s="290" t="n">
         <f aca="false">G104-C104</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I104" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B104-B103)/H104</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J104" s="294" t="n">
         <f aca="false">J103+I104</f>
-        <v>0.029375</v>
+        <v>0.0225961538461539</v>
       </c>
       <c r="K104" s="287" t="n">
         <f aca="false">J104*1000</f>
-        <v>29.375</v>
+        <v>22.5961538461539</v>
       </c>
       <c r="L104" s="282" t="n">
         <f aca="false">H104/G104</f>
@@ -42026,15 +42034,15 @@
       </c>
       <c r="O104" s="279" t="n">
         <f aca="false">G104*(A104-B104)</f>
-        <v>29.585798816568</v>
+        <v>38.4615384615385</v>
       </c>
       <c r="P104" s="279" t="n">
         <f aca="false">(A104-B104)*(I_Cout_ss*$Q$2+C104)</f>
-        <v>59.1715976331361</v>
+        <v>76.9230769230769</v>
       </c>
       <c r="Q104" s="279" t="n">
         <f aca="false">(A104-B104)*(I_Cout_ss*$R$2+C104)</f>
-        <v>11.094674556213</v>
+        <v>14.4230769230769</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42060,27 +42068,27 @@
       </c>
       <c r="F105" s="290" t="n">
         <f aca="false">I_Cout_ss+C105</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G105" s="292" t="n">
         <f aca="false">IF($F$2="YES", F105, E105)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H105" s="290" t="n">
         <f aca="false">G105-C105</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I105" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B105-B104)/H105</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J105" s="294" t="n">
         <f aca="false">J104+I105</f>
-        <v>0.0296875</v>
+        <v>0.0228365384615385</v>
       </c>
       <c r="K105" s="287" t="n">
         <f aca="false">J105*1000</f>
-        <v>29.6875</v>
+        <v>22.8365384615385</v>
       </c>
       <c r="L105" s="282" t="n">
         <f aca="false">H105/G105</f>
@@ -42096,15 +42104,15 @@
       </c>
       <c r="O105" s="279" t="n">
         <f aca="false">G105*(A105-B105)</f>
-        <v>26.6272189349113</v>
+        <v>34.6153846153846</v>
       </c>
       <c r="P105" s="279" t="n">
         <f aca="false">(A105-B105)*(I_Cout_ss*$Q$2+C105)</f>
-        <v>53.2544378698225</v>
+        <v>69.2307692307693</v>
       </c>
       <c r="Q105" s="279" t="n">
         <f aca="false">(A105-B105)*(I_Cout_ss*$R$2+C105)</f>
-        <v>9.98520710059172</v>
+        <v>12.9807692307692</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42130,27 +42138,27 @@
       </c>
       <c r="F106" s="290" t="n">
         <f aca="false">I_Cout_ss+C106</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G106" s="292" t="n">
         <f aca="false">IF($F$2="YES", F106, E106)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H106" s="290" t="n">
         <f aca="false">G106-C106</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I106" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B106-B105)/H106</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J106" s="294" t="n">
         <f aca="false">J105+I106</f>
-        <v>0.03</v>
+        <v>0.0230769230769231</v>
       </c>
       <c r="K106" s="287" t="n">
         <f aca="false">J106*1000</f>
-        <v>30</v>
+        <v>23.0769230769231</v>
       </c>
       <c r="L106" s="282" t="n">
         <f aca="false">H106/G106</f>
@@ -42166,15 +42174,15 @@
       </c>
       <c r="O106" s="279" t="n">
         <f aca="false">G106*(A106-B106)</f>
-        <v>23.6686390532544</v>
+        <v>30.7692307692308</v>
       </c>
       <c r="P106" s="279" t="n">
         <f aca="false">(A106-B106)*(I_Cout_ss*$Q$2+C106)</f>
-        <v>47.3372781065089</v>
+        <v>61.5384615384616</v>
       </c>
       <c r="Q106" s="279" t="n">
         <f aca="false">(A106-B106)*(I_Cout_ss*$R$2+C106)</f>
-        <v>8.87573964497042</v>
+        <v>11.5384615384615</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42200,27 +42208,27 @@
       </c>
       <c r="F107" s="290" t="n">
         <f aca="false">I_Cout_ss+C107</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G107" s="292" t="n">
         <f aca="false">IF($F$2="YES", F107, E107)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H107" s="290" t="n">
         <f aca="false">G107-C107</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I107" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B107-B106)/H107</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J107" s="294" t="n">
         <f aca="false">J106+I107</f>
-        <v>0.0303125</v>
+        <v>0.0233173076923077</v>
       </c>
       <c r="K107" s="287" t="n">
         <f aca="false">J107*1000</f>
-        <v>30.3125</v>
+        <v>23.3173076923077</v>
       </c>
       <c r="L107" s="282" t="n">
         <f aca="false">H107/G107</f>
@@ -42236,15 +42244,15 @@
       </c>
       <c r="O107" s="279" t="n">
         <f aca="false">G107*(A107-B107)</f>
-        <v>20.7100591715976</v>
+        <v>26.9230769230769</v>
       </c>
       <c r="P107" s="279" t="n">
         <f aca="false">(A107-B107)*(I_Cout_ss*$Q$2+C107)</f>
-        <v>41.4201183431952</v>
+        <v>53.8461538461538</v>
       </c>
       <c r="Q107" s="279" t="n">
         <f aca="false">(A107-B107)*(I_Cout_ss*$R$2+C107)</f>
-        <v>7.76627218934911</v>
+        <v>10.0961538461538</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42270,27 +42278,27 @@
       </c>
       <c r="F108" s="290" t="n">
         <f aca="false">I_Cout_ss+C108</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G108" s="292" t="n">
         <f aca="false">IF($F$2="YES", F108, E108)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H108" s="290" t="n">
         <f aca="false">G108-C108</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I108" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B108-B107)/H108</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J108" s="294" t="n">
         <f aca="false">J107+I108</f>
-        <v>0.030625</v>
+        <v>0.0235576923076923</v>
       </c>
       <c r="K108" s="287" t="n">
         <f aca="false">J108*1000</f>
-        <v>30.625</v>
+        <v>23.5576923076923</v>
       </c>
       <c r="L108" s="282" t="n">
         <f aca="false">H108/G108</f>
@@ -42306,15 +42314,15 @@
       </c>
       <c r="O108" s="279" t="n">
         <f aca="false">G108*(A108-B108)</f>
-        <v>17.7514792899408</v>
+        <v>23.0769230769231</v>
       </c>
       <c r="P108" s="279" t="n">
         <f aca="false">(A108-B108)*(I_Cout_ss*$Q$2+C108)</f>
-        <v>35.5029585798817</v>
+        <v>46.1538461538462</v>
       </c>
       <c r="Q108" s="279" t="n">
         <f aca="false">(A108-B108)*(I_Cout_ss*$R$2+C108)</f>
-        <v>6.65680473372782</v>
+        <v>8.65384615384616</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42340,27 +42348,27 @@
       </c>
       <c r="F109" s="290" t="n">
         <f aca="false">I_Cout_ss+C109</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G109" s="292" t="n">
         <f aca="false">IF($F$2="YES", F109, E109)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H109" s="290" t="n">
         <f aca="false">G109-C109</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I109" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B109-B108)/H109</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J109" s="294" t="n">
         <f aca="false">J108+I109</f>
-        <v>0.0309375</v>
+        <v>0.023798076923077</v>
       </c>
       <c r="K109" s="287" t="n">
         <f aca="false">J109*1000</f>
-        <v>30.9375</v>
+        <v>23.798076923077</v>
       </c>
       <c r="L109" s="282" t="n">
         <f aca="false">H109/G109</f>
@@ -42376,15 +42384,15 @@
       </c>
       <c r="O109" s="279" t="n">
         <f aca="false">G109*(A109-B109)</f>
-        <v>14.792899408284</v>
+        <v>19.2307692307692</v>
       </c>
       <c r="P109" s="279" t="n">
         <f aca="false">(A109-B109)*(I_Cout_ss*$Q$2+C109)</f>
-        <v>29.585798816568</v>
+        <v>38.4615384615385</v>
       </c>
       <c r="Q109" s="279" t="n">
         <f aca="false">(A109-B109)*(I_Cout_ss*$R$2+C109)</f>
-        <v>5.54733727810651</v>
+        <v>7.21153846153846</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42410,27 +42418,27 @@
       </c>
       <c r="F110" s="290" t="n">
         <f aca="false">I_Cout_ss+C110</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G110" s="292" t="n">
         <f aca="false">IF($F$2="YES", F110, E110)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H110" s="290" t="n">
         <f aca="false">G110-C110</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I110" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B110-B109)/H110</f>
-        <v>0.000312500000000002</v>
+        <v>0.000240384615384617</v>
       </c>
       <c r="J110" s="294" t="n">
         <f aca="false">J109+I110</f>
-        <v>0.03125</v>
+        <v>0.0240384615384616</v>
       </c>
       <c r="K110" s="287" t="n">
         <f aca="false">J110*1000</f>
-        <v>31.25</v>
+        <v>24.0384615384616</v>
       </c>
       <c r="L110" s="282" t="n">
         <f aca="false">H110/G110</f>
@@ -42446,15 +42454,15 @@
       </c>
       <c r="O110" s="279" t="n">
         <f aca="false">G110*(A110-B110)</f>
-        <v>11.8343195266272</v>
+        <v>15.3846153846154</v>
       </c>
       <c r="P110" s="279" t="n">
         <f aca="false">(A110-B110)*(I_Cout_ss*$Q$2+C110)</f>
-        <v>23.6686390532544</v>
+        <v>30.7692307692307</v>
       </c>
       <c r="Q110" s="279" t="n">
         <f aca="false">(A110-B110)*(I_Cout_ss*$R$2+C110)</f>
-        <v>4.4378698224852</v>
+        <v>5.76923076923076</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42480,27 +42488,27 @@
       </c>
       <c r="F111" s="290" t="n">
         <f aca="false">I_Cout_ss+C111</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G111" s="292" t="n">
         <f aca="false">IF($F$2="YES", F111, E111)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H111" s="290" t="n">
         <f aca="false">G111-C111</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I111" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B111-B110)/H111</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J111" s="294" t="n">
         <f aca="false">J110+I111</f>
-        <v>0.0315625</v>
+        <v>0.0242788461538462</v>
       </c>
       <c r="K111" s="287" t="n">
         <f aca="false">J111*1000</f>
-        <v>31.5625</v>
+        <v>24.2788461538462</v>
       </c>
       <c r="L111" s="282" t="n">
         <f aca="false">H111/G111</f>
@@ -42516,15 +42524,15 @@
       </c>
       <c r="O111" s="279" t="n">
         <f aca="false">G111*(A111-B111)</f>
-        <v>8.87573964497042</v>
+        <v>11.5384615384615</v>
       </c>
       <c r="P111" s="279" t="n">
         <f aca="false">(A111-B111)*(I_Cout_ss*$Q$2+C111)</f>
-        <v>17.7514792899408</v>
+        <v>23.0769230769231</v>
       </c>
       <c r="Q111" s="279" t="n">
         <f aca="false">(A111-B111)*(I_Cout_ss*$R$2+C111)</f>
-        <v>3.32840236686391</v>
+        <v>4.32692307692308</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42550,27 +42558,27 @@
       </c>
       <c r="F112" s="290" t="n">
         <f aca="false">I_Cout_ss+C112</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G112" s="292" t="n">
         <f aca="false">IF($F$2="YES", F112, E112)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H112" s="290" t="n">
         <f aca="false">G112-C112</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I112" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B112-B111)/H112</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J112" s="294" t="n">
         <f aca="false">J111+I112</f>
-        <v>0.031875</v>
+        <v>0.0245192307692308</v>
       </c>
       <c r="K112" s="287" t="n">
         <f aca="false">J112*1000</f>
-        <v>31.875</v>
+        <v>24.5192307692308</v>
       </c>
       <c r="L112" s="282" t="n">
         <f aca="false">H112/G112</f>
@@ -42586,15 +42594,15 @@
       </c>
       <c r="O112" s="279" t="n">
         <f aca="false">G112*(A112-B112)</f>
-        <v>5.91715976331364</v>
+        <v>7.69230769230774</v>
       </c>
       <c r="P112" s="279" t="n">
         <f aca="false">(A112-B112)*(I_Cout_ss*$Q$2+C112)</f>
-        <v>11.8343195266273</v>
+        <v>15.3846153846155</v>
       </c>
       <c r="Q112" s="279" t="n">
         <f aca="false">(A112-B112)*(I_Cout_ss*$R$2+C112)</f>
-        <v>2.21893491124262</v>
+        <v>2.8846153846154</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42620,27 +42628,27 @@
       </c>
       <c r="F113" s="290" t="n">
         <f aca="false">I_Cout_ss+C113</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G113" s="292" t="n">
         <f aca="false">IF($F$2="YES", F113, E113)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H113" s="290" t="n">
         <f aca="false">G113-C113</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I113" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B113-B112)/H113</f>
-        <v>0.000312500000000006</v>
+        <v>0.00024038461538462</v>
       </c>
       <c r="J113" s="294" t="n">
         <f aca="false">J112+I113</f>
-        <v>0.0321875</v>
+        <v>0.0247596153846154</v>
       </c>
       <c r="K113" s="287" t="n">
         <f aca="false">J113*1000</f>
-        <v>32.1875</v>
+        <v>24.7596153846154</v>
       </c>
       <c r="L113" s="282" t="n">
         <f aca="false">H113/G113</f>
@@ -42656,15 +42664,15 @@
       </c>
       <c r="O113" s="279" t="n">
         <f aca="false">G113*(A113-B113)</f>
-        <v>2.95857988165678</v>
+        <v>3.84615384615381</v>
       </c>
       <c r="P113" s="279" t="n">
         <f aca="false">(A113-B113)*(I_Cout_ss*$Q$2+C113)</f>
-        <v>5.91715976331356</v>
+        <v>7.69230769230762</v>
       </c>
       <c r="Q113" s="279" t="n">
         <f aca="false">(A113-B113)*(I_Cout_ss*$R$2+C113)</f>
-        <v>1.10946745562129</v>
+        <v>1.44230769230768</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42690,27 +42698,27 @@
       </c>
       <c r="F114" s="290" t="n">
         <f aca="false">I_Cout_ss+C114</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="G114" s="292" t="n">
         <f aca="false">IF($F$2="YES", F114, E114)</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="H114" s="290" t="n">
         <f aca="false">G114-C114</f>
-        <v>6.15384615384615</v>
+        <v>8</v>
       </c>
       <c r="I114" s="293" t="n">
         <f aca="false">(COUTMAX/1000000)*(B114-B113)/H114</f>
-        <v>0.000312499999999997</v>
+        <v>0.000240384615384613</v>
       </c>
       <c r="J114" s="294" t="n">
         <f aca="false">J113+I114</f>
-        <v>0.0325</v>
+        <v>0.025</v>
       </c>
       <c r="K114" s="287" t="n">
         <f aca="false">J114*1000</f>
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="L114" s="282" t="n">
         <f aca="false">H114/G114</f>
@@ -42740,7 +42748,7 @@
     <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K115" s="298" t="n">
         <f aca="false">K114+0.5</f>
-        <v>33</v>
+        <v>25.5</v>
       </c>
       <c r="N115" s="279" t="n">
         <v>0</v>
@@ -42997,7 +43005,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">Equations!F60</f>
-        <v>16.09375</v>
+        <v>12.3798076923077</v>
       </c>
       <c r="J8" s="312"/>
       <c r="K8" s="278"/>
@@ -43345,7 +43353,7 @@
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">H18*H8^H19</f>
-        <v>14.4894153050617</v>
+        <v>16.3305674628221</v>
       </c>
       <c r="K20" s="278"/>
       <c r="L20" s="122"/>
@@ -43390,7 +43398,7 @@
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">H20*H9</f>
-        <v>724.470765253083</v>
+        <v>816.528373141104</v>
       </c>
       <c r="K22" s="278"/>
       <c r="L22" s="122"/>
@@ -43539,7 +43547,7 @@
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">IF((H22*H27)&lt;0,0.000000001,H22*H27)</f>
-        <v>622.192539570295</v>
+        <v>701.253779285889</v>
       </c>
       <c r="K28" s="278"/>
       <c r="L28" s="122"/>
@@ -43928,7 +43936,7 @@
       </c>
       <c r="E23" s="0" t="n">
         <f aca="false">Equations!F57</f>
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="I23" s="225" t="s">
         <v>481</v>

--- a/hw/power_dist/LM5066I_Design_Calculator_REV_C.XLSX
+++ b/hw/power_dist/LM5066I_Design_Calculator_REV_C.XLSX
@@ -6017,7 +6017,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7113,11 +7113,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43852805"/>
-        <c:axId val="60679484"/>
+        <c:axId val="54266612"/>
+        <c:axId val="72212107"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43852805"/>
+        <c:axId val="54266612"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7217,12 +7217,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60679484"/>
+        <c:crossAx val="72212107"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60679484"/>
+        <c:axId val="72212107"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7322,7 +7322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43852805"/>
+        <c:crossAx val="54266612"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7393,7 +7393,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8801,11 +8801,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="32942623"/>
-        <c:axId val="54143539"/>
+        <c:axId val="14759296"/>
+        <c:axId val="75004980"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32942623"/>
+        <c:axId val="14759296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8899,12 +8899,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54143539"/>
+        <c:crossAx val="75004980"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54143539"/>
+        <c:axId val="75004980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8999,7 +8999,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32942623"/>
+        <c:crossAx val="14759296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9062,7 +9062,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9833,11 +9833,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15511"/>
-        <c:axId val="54900460"/>
+        <c:axId val="28155369"/>
+        <c:axId val="65267046"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15511"/>
+        <c:axId val="28155369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1"/>
@@ -9922,12 +9922,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54900460"/>
+        <c:crossAx val="65267046"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54900460"/>
+        <c:axId val="65267046"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10022,7 +10022,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15511"/>
+        <c:crossAx val="28155369"/>
         <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10085,7 +10085,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11483,11 +11483,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88318627"/>
-        <c:axId val="40458723"/>
+        <c:axId val="64298080"/>
+        <c:axId val="14308980"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88318627"/>
+        <c:axId val="64298080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11553,12 +11553,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40458723"/>
+        <c:crossAx val="14308980"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40458723"/>
+        <c:axId val="14308980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11635,7 +11635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88318627"/>
+        <c:crossAx val="64298080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16965,8 +16965,8 @@
   </sheetPr>
   <dimension ref="A1:AU227"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F91" activeCellId="0" sqref="F91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F109" activeCellId="0" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21529,7 +21529,7 @@
         <v>138</v>
       </c>
       <c r="F97" s="157" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G97" s="158" t="s">
         <v>40</v>
@@ -21579,7 +21579,7 @@
         <v>139</v>
       </c>
       <c r="F98" s="157" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G98" s="158" t="s">
         <v>40</v>
@@ -21629,7 +21629,7 @@
         <v>141</v>
       </c>
       <c r="F99" s="157" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G99" s="158" t="s">
         <v>40</v>
@@ -21679,7 +21679,7 @@
         <v>143</v>
       </c>
       <c r="F100" s="157" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G100" s="158" t="s">
         <v>40</v>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="F101" s="161" t="n">
         <f aca="false">IF(F96="Option A",Equations!F119,Equations!G119)</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G101" s="158" t="s">
         <v>96</v>
@@ -21775,7 +21775,7 @@
       </c>
       <c r="F102" s="161" t="n">
         <f aca="false">IF(F96="Option A",Equations!F120,Equations!G120)</f>
-        <v>11.4391143911439</v>
+        <v>19.0184049079755</v>
       </c>
       <c r="G102" s="158" t="s">
         <v>96</v>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F103" s="161" t="n">
         <f aca="false">IF(F96="Option A",Equations!F121,Equations!G121)</f>
-        <v>95.2380952380952</v>
+        <v>142.857142857143</v>
       </c>
       <c r="G103" s="158" t="s">
         <v>96</v>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="F104" s="161" t="n">
         <f aca="false">IF(F96="Option A",Equations!F122,Equations!G122)</f>
-        <v>3.74617387728996</v>
+        <v>6.32748598178919</v>
       </c>
       <c r="G104" s="158" t="s">
         <v>96</v>
@@ -21920,7 +21920,7 @@
         <v>148</v>
       </c>
       <c r="F105" s="157" t="n">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="G105" s="158" t="s">
         <v>96</v>
@@ -21967,7 +21967,7 @@
         <v>149</v>
       </c>
       <c r="F106" s="157" t="n">
-        <v>11.5</v>
+        <v>19.1</v>
       </c>
       <c r="G106" s="158" t="s">
         <v>96</v>
@@ -22014,7 +22014,7 @@
         <v>150</v>
       </c>
       <c r="F107" s="157" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G107" s="158" t="s">
         <v>96</v>
@@ -22061,7 +22061,7 @@
         <v>151</v>
       </c>
       <c r="F108" s="157" t="n">
-        <v>4.02</v>
+        <v>6.49</v>
       </c>
       <c r="G108" s="158" t="s">
         <v>96</v>
@@ -22197,15 +22197,15 @@
       </c>
       <c r="D111" s="167" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F123,Equations!G123)</f>
-        <v>36.2447826086957</v>
+        <v>9.0923664921466</v>
       </c>
       <c r="E111" s="168" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F124,Equations!G124)</f>
-        <v>37.8278260869565</v>
+        <v>9.52261780104712</v>
       </c>
       <c r="F111" s="169" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F125,Equations!G125)</f>
-        <v>39.4108695652174</v>
+        <v>9.95286910994764</v>
       </c>
       <c r="G111" s="158" t="s">
         <v>40</v>
@@ -22251,15 +22251,15 @@
       </c>
       <c r="D112" s="170" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F126,Equations!G126)</f>
-        <v>33.8447826086957</v>
+        <v>8.3403664921466</v>
       </c>
       <c r="E112" s="143" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F127,Equations!G127)</f>
-        <v>34.8278260869565</v>
+        <v>8.58261780104712</v>
       </c>
       <c r="F112" s="171" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F128,Equations!G128)</f>
-        <v>35.8108695652174</v>
+        <v>8.82486910994764</v>
       </c>
       <c r="G112" s="158" t="s">
         <v>40</v>
@@ -22305,15 +22305,15 @@
       </c>
       <c r="D113" s="170" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F129,Equations!G129)</f>
-        <v>61.842736318408</v>
+        <v>53.9462403697997</v>
       </c>
       <c r="E113" s="143" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F130,Equations!G130)</f>
-        <v>63.6540298507463</v>
+        <v>55.5262557781202</v>
       </c>
       <c r="F113" s="171" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F131,Equations!G131)</f>
-        <v>65.4653233830846</v>
+        <v>57.1062711864407</v>
       </c>
       <c r="G113" s="158" t="s">
         <v>40</v>
@@ -22359,15 +22359,15 @@
       </c>
       <c r="D114" s="172" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F132,Equations!G132)</f>
-        <v>59.442736318408</v>
+        <v>50.5862403697997</v>
       </c>
       <c r="E114" s="173" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F133,Equations!G133)</f>
-        <v>61.5540298507463</v>
+        <v>52.5862557781202</v>
       </c>
       <c r="F114" s="174" t="n">
         <f aca="false">IF($F$96="Option A",Equations!F134,Equations!G134)</f>
-        <v>63.8653233830846</v>
+        <v>54.8662711864407</v>
       </c>
       <c r="G114" s="158" t="s">
         <v>40</v>
@@ -23220,7 +23220,7 @@
       </c>
       <c r="F132" s="201" t="n">
         <f aca="false">F105</f>
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="G132" s="190" t="s">
         <v>96</v>
@@ -23275,7 +23275,7 @@
       </c>
       <c r="F133" s="201" t="n">
         <f aca="false">F106</f>
-        <v>11.5</v>
+        <v>19.1</v>
       </c>
       <c r="G133" s="190" t="s">
         <v>96</v>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="F134" s="201" t="n">
         <f aca="false">F107</f>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G134" s="190" t="s">
         <v>96</v>
@@ -23385,7 +23385,7 @@
       </c>
       <c r="F135" s="205" t="n">
         <f aca="false">IF(F96="Option A","N/A",F108)</f>
-        <v>4.02</v>
+        <v>6.49</v>
       </c>
       <c r="G135" s="190" t="s">
         <v>96</v>
@@ -23562,7 +23562,7 @@
       </c>
       <c r="K138" s="206" t="n">
         <f aca="false">E111</f>
-        <v>37.8278260869565</v>
+        <v>9.52261780104712</v>
       </c>
       <c r="L138" s="200" t="s">
         <v>40</v>
@@ -23616,7 +23616,7 @@
       </c>
       <c r="K139" s="206" t="n">
         <f aca="false">E112</f>
-        <v>34.8278260869565</v>
+        <v>8.58261780104712</v>
       </c>
       <c r="L139" s="200" t="s">
         <v>40</v>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="K140" s="206" t="n">
         <f aca="false">E113</f>
-        <v>63.6540298507463</v>
+        <v>55.5262557781202</v>
       </c>
       <c r="L140" s="200" t="s">
         <v>40</v>
@@ -23724,7 +23724,7 @@
       </c>
       <c r="K141" s="206" t="n">
         <f aca="false">E114</f>
-        <v>61.5540298507463</v>
+        <v>52.5862557781202</v>
       </c>
       <c r="L141" s="200" t="s">
         <v>40</v>
@@ -29775,11 +29775,11 @@
       </c>
       <c r="F119" s="254" t="n">
         <f aca="false">('Design Calculator'!F97-'Design Calculator'!F98)*1000/20</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G119" s="254" t="n">
         <f aca="false">('Design Calculator'!F97-'Design Calculator'!F98)*1000/20</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H119" s="239"/>
     </row>
@@ -29790,11 +29790,11 @@
       </c>
       <c r="F120" s="254" t="n">
         <f aca="false">2.48*F119/('Design Calculator'!F98-2.48)-F121</f>
-        <v>5.32926483110985</v>
+        <v>16.0910725618786</v>
       </c>
       <c r="G120" s="254" t="n">
         <f aca="false">2.48*G119/('Design Calculator'!F98-2.48)</f>
-        <v>11.4391143911439</v>
+        <v>19.0184049079755</v>
       </c>
       <c r="H120" s="239"/>
     </row>
@@ -29805,11 +29805,11 @@
       </c>
       <c r="F121" s="254" t="n">
         <f aca="false">(F119*'Design Calculator'!F98*2.46)/('Design Calculator'!F99*('Design Calculator'!F98-2.48))</f>
-        <v>6.10984956003406</v>
+        <v>2.92733234609689</v>
       </c>
       <c r="G121" s="254" t="n">
         <f aca="false">('Design Calculator'!F99-'Design Calculator'!F100)*1000/21</f>
-        <v>95.2380952380952</v>
+        <v>142.857142857143</v>
       </c>
       <c r="H121" s="239"/>
     </row>
@@ -29821,7 +29821,7 @@
       <c r="F122" s="243"/>
       <c r="G122" s="254" t="n">
         <f aca="false">2.46*G121/('Design Calculator'!F99-2.46)</f>
-        <v>3.74617387728996</v>
+        <v>6.32748598178919</v>
       </c>
       <c r="H122" s="239"/>
     </row>
@@ -29834,11 +29834,11 @@
       </c>
       <c r="F123" s="254" t="n">
         <f aca="false">2.41+('Design Calculator'!F105*((2.41/('Design Calculator'!F106+'Design Calculator'!F107))+(16/1000)))</f>
-        <v>8.05215246636771</v>
+        <v>3.87394217473287</v>
       </c>
       <c r="G123" s="254" t="n">
         <f aca="false">2.41+('Design Calculator'!F$105*((2.41/'Design Calculator'!F$106)+(16/1000)))</f>
-        <v>36.2447826086957</v>
+        <v>9.0923664921466</v>
       </c>
       <c r="H123" s="239"/>
     </row>
@@ -29851,11 +29851,11 @@
       </c>
       <c r="F124" s="254" t="n">
         <f aca="false">2.48+('Design Calculator'!F105*((2.48/('Design Calculator'!F106+'Design Calculator'!F107))+(20/1000)))</f>
-        <v>8.81632286995516</v>
+        <v>4.15262099308611</v>
       </c>
       <c r="G124" s="254" t="n">
         <f aca="false">2.48+('Design Calculator'!F$105*((2.48/'Design Calculator'!F$106)+(20/1000)))</f>
-        <v>37.8278260869565</v>
+        <v>9.52261780104712</v>
       </c>
       <c r="H124" s="239"/>
     </row>
@@ -29868,11 +29868,11 @@
       </c>
       <c r="F125" s="254" t="n">
         <f aca="false">2.55+('Design Calculator'!F105*((2.55/('Design Calculator'!F106+'Design Calculator'!F107))+(24/1000)))</f>
-        <v>9.5804932735426</v>
+        <v>4.43129981143935</v>
       </c>
       <c r="G125" s="254" t="n">
         <f aca="false">2.55+('Design Calculator'!F$105*((2.55/'Design Calculator'!F$106)+(24/1000)))</f>
-        <v>39.4108695652174</v>
+        <v>9.95286910994764</v>
       </c>
       <c r="H125" s="239"/>
     </row>
@@ -29883,11 +29883,11 @@
       </c>
       <c r="F126" s="254" t="n">
         <f aca="false">2.41*('Design Calculator'!F105+'Design Calculator'!F106+'Design Calculator'!F107)/('Design Calculator'!F106+'Design Calculator'!F107)</f>
-        <v>5.65215246636771</v>
+        <v>3.12194217473287</v>
       </c>
       <c r="G126" s="254" t="n">
         <f aca="false">2.41*('Design Calculator'!F$105+'Design Calculator'!F$106)/'Design Calculator'!F$106</f>
-        <v>33.8447826086957</v>
+        <v>8.3403664921466</v>
       </c>
       <c r="H126" s="239"/>
     </row>
@@ -29898,11 +29898,11 @@
       </c>
       <c r="F127" s="254" t="n">
         <f aca="false">2.48*('Design Calculator'!F105+'Design Calculator'!F106+'Design Calculator'!F107)/('Design Calculator'!F106+'Design Calculator'!F107)</f>
-        <v>5.81632286995516</v>
+        <v>3.21262099308611</v>
       </c>
       <c r="G127" s="254" t="n">
         <f aca="false">2.48*('Design Calculator'!F$105+'Design Calculator'!F$106)/'Design Calculator'!F$106</f>
-        <v>34.8278260869565</v>
+        <v>8.58261780104712</v>
       </c>
       <c r="H127" s="239"/>
     </row>
@@ -29913,11 +29913,11 @@
       </c>
       <c r="F128" s="254" t="n">
         <f aca="false">2.55*('Design Calculator'!F105+'Design Calculator'!F106+'Design Calculator'!F107)/('Design Calculator'!F106+'Design Calculator'!F107)</f>
-        <v>5.9804932735426</v>
+        <v>3.30329981143935</v>
       </c>
       <c r="G128" s="254" t="n">
         <f aca="false">2.55*('Design Calculator'!F$105+'Design Calculator'!F$106)/'Design Calculator'!F$106</f>
-        <v>35.8108695652174</v>
+        <v>8.82486910994764</v>
       </c>
       <c r="H128" s="239"/>
     </row>
@@ -29930,11 +29930,11 @@
       </c>
       <c r="F129" s="254" t="n">
         <f aca="false">2.39*('Design Calculator'!F105+'Design Calculator'!F106+'Design Calculator'!F107)/'Design Calculator'!F107</f>
-        <v>6.24985</v>
+        <v>3.51842142857143</v>
       </c>
       <c r="G129" s="254" t="n">
         <f aca="false">2.39*('Design Calculator'!F$107+'Design Calculator'!F$108)/'Design Calculator'!F$108</f>
-        <v>61.842736318408</v>
+        <v>53.9462403697997</v>
       </c>
       <c r="H129" s="239"/>
     </row>
@@ -29947,11 +29947,11 @@
       </c>
       <c r="F130" s="254" t="n">
         <f aca="false">2.46*('Design Calculator'!F$105+'Design Calculator'!F$106+'Design Calculator'!F$107)/'Design Calculator'!F$107</f>
-        <v>6.4329</v>
+        <v>3.62147142857143</v>
       </c>
       <c r="G130" s="254" t="n">
         <f aca="false">2.46*('Design Calculator'!F$107+'Design Calculator'!F$108)/'Design Calculator'!F$108</f>
-        <v>63.6540298507463</v>
+        <v>55.5262557781202</v>
       </c>
       <c r="H130" s="239"/>
     </row>
@@ -29964,11 +29964,11 @@
       </c>
       <c r="F131" s="254" t="n">
         <f aca="false">2.53*('Design Calculator'!F$105+'Design Calculator'!F$106+'Design Calculator'!F$107)/'Design Calculator'!F$107</f>
-        <v>6.61595</v>
+        <v>3.72452142857143</v>
       </c>
       <c r="G131" s="254" t="n">
         <f aca="false">2.53*('Design Calculator'!F$107+'Design Calculator'!F$108)/'Design Calculator'!F$108</f>
-        <v>65.4653233830846</v>
+        <v>57.1062711864407</v>
       </c>
       <c r="H131" s="239"/>
     </row>
@@ -29979,11 +29979,11 @@
       </c>
       <c r="F132" s="254" t="n">
         <f aca="false">2.39+(('Design Calculator'!F$105+'Design Calculator'!F$106)*((2.39/'Design Calculator'!F$107)-(24/1000)))</f>
-        <v>2.37385</v>
+        <v>1.93202142857143</v>
       </c>
       <c r="G132" s="254" t="n">
         <f aca="false">2.39+('Design Calculator'!F$107*((2.39/'Design Calculator'!F$108)-(24/1000)))</f>
-        <v>59.442736318408</v>
+        <v>50.5862403697997</v>
       </c>
       <c r="H132" s="239"/>
     </row>
@@ -29994,11 +29994,11 @@
       </c>
       <c r="F133" s="254" t="n">
         <f aca="false">2.46+(('Design Calculator'!F$105+'Design Calculator'!F$106)*((2.46/'Design Calculator'!F$107)-(21/1000)))</f>
-        <v>3.0414</v>
+        <v>2.23337142857143</v>
       </c>
       <c r="G133" s="254" t="n">
         <f aca="false">2.46+('Design Calculator'!F$107*((2.46/'Design Calculator'!F$108)-(21/1000)))</f>
-        <v>61.5540298507463</v>
+        <v>52.5862557781202</v>
       </c>
       <c r="H133" s="239"/>
     </row>
@@ -30009,11 +30009,11 @@
       </c>
       <c r="F134" s="254" t="n">
         <f aca="false">2.53+(('Design Calculator'!F$105+'Design Calculator'!F$106)*((2.53/'Design Calculator'!F$107)-(16/1000)))</f>
-        <v>4.03195</v>
+        <v>2.66692142857143</v>
       </c>
       <c r="G134" s="254" t="n">
         <f aca="false">2.53+('Design Calculator'!F$107*((2.53/'Design Calculator'!F$108)-(16/1000)))</f>
-        <v>63.8653233830846</v>
+        <v>54.8662711864407</v>
       </c>
       <c r="H134" s="239"/>
     </row>
